--- a/data/hotels_by_city/Houston/Houston_shard_387.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_387.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107903-Reviews-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Howard-Johnson-By-Wyndham-Houston-Downtown.h8947.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1401 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r564038973-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107903</t>
+  </si>
+  <si>
+    <t>564038973</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>One night business trip</t>
+  </si>
+  <si>
+    <t>Nice staff but old and loud. Very close to interstate and seems to attract patrons that like o hang out in parking lot and drink. Been in worse but won’t be back. Not very accessible to any decent restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Nice staff but old and loud. Very close to interstate and seems to attract patrons that like o hang out in parking lot and drink. Been in worse but won’t be back. Not very accessible to any decent restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r563006930-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563006930</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r557373916-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557373916</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r526775035-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526775035</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r526606028-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526606028</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Sketchy Neighbourhood</t>
+  </si>
+  <si>
+    <t>This is a very small Hotel with the tiniest lobby I have every seen. Check in was for me and the gentleman was pleasant. The room was quite large and clean. There didn't appear to be any restaurants near by and as we didn't have a car and it was pouring rain we ordered pizza. The neighbourhood seemed a bit sketchy as did a few of the people in the parking lot. The room was inexpensive and ok but I didn't really feel safe. Location was handy to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This is a very small Hotel with the tiniest lobby I have every seen. Check in was for me and the gentleman was pleasant. The room was quite large and clean. There didn't appear to be any restaurants near by and as we didn't have a car and it was pouring rain we ordered pizza. The neighbourhood seemed a bit sketchy as did a few of the people in the parking lot. The room was inexpensive and ok but I didn't really feel safe. Location was handy to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r509869997-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509869997</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>SMELLY and SMALL</t>
+  </si>
+  <si>
+    <t>Way overpriced!!! Pictures on website are deceiving.   Selected this motel bc it was affiliated with Wyndham hotels, (which are usually nice facilities) and it's close to Medical Center. Considering it was $90/night, I figured it would be nice. My dad had a surgery scheduled early in the morning, so we drove in 2hrs to try and get some rest.  BIG MISTAKE..... 1)The room smelled so bad it  was hard to breathe, Very moldy and musty.  2) Bathroom so small, could barely move....Paint peeling off the walls and rust stains.  3) Room was very small and just plain yucky!!!  Didnt really feel safe.I've spent alot less for way better rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Way overpriced!!! Pictures on website are deceiving.   Selected this motel bc it was affiliated with Wyndham hotels, (which are usually nice facilities) and it's close to Medical Center. Considering it was $90/night, I figured it would be nice. My dad had a surgery scheduled early in the morning, so we drove in 2hrs to try and get some rest.  BIG MISTAKE..... 1)The room smelled so bad it  was hard to breathe, Very moldy and musty.  2) Bathroom so small, could barely move....Paint peeling off the walls and rust stains.  3) Room was very small and just plain yucky!!!  Didnt really feel safe.I've spent alot less for way better rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r496311801-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496311801</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r485473158-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485473158</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r483914005-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483914005</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r465588015-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465588015</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r451735027-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451735027</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r445651595-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445651595</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r437953939-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437953939</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Good location, satisfactory lodging</t>
+  </si>
+  <si>
+    <t>This smaller Howard Johnson was well maintained and a good no-frills hotel.  The staff was friendly and helpful, and the rooms were clean.  It has a good location relative to the Heights and River Oaks, and is not all that far from downtown and midtown.  Situated on the I-10 access road, there was constant road noise, but something one perhaps could get used to.  It didn't disturb our sleep. Overall not a luxury place, but a reasonable deal for a night's stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>This smaller Howard Johnson was well maintained and a good no-frills hotel.  The staff was friendly and helpful, and the rooms were clean.  It has a good location relative to the Heights and River Oaks, and is not all that far from downtown and midtown.  Situated on the I-10 access road, there was constant road noise, but something one perhaps could get used to.  It didn't disturb our sleep. Overall not a luxury place, but a reasonable deal for a night's stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r433311658-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433311658</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. The hotel itself could do with an update. The room was big enough but dark. Couldn't leave the curtains open as other guests could have looked inside our room. Location is a bit far out of town, but a taxi or a bus which the bus stop is close by doesn't cost much. Good plus is, that over the bridge ca. 5minute walk are loads of different restaurants, which are not too expensive and the food is really good. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. The hotel itself could do with an update. The room was big enough but dark. Couldn't leave the curtains open as other guests could have looked inside our room. Location is a bit far out of town, but a taxi or a bus which the bus stop is close by doesn't cost much. Good plus is, that over the bridge ca. 5minute walk are loads of different restaurants, which are not too expensive and the food is really good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r418865802-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418865802</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r402158058-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402158058</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>Very helpful staff.  Clean and well decorated room.  Quiet.  No problems for this thoroughly enjoyable stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Very helpful staff.  Clean and well decorated room.  Quiet.  No problems for this thoroughly enjoyable stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r394675715-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394675715</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>nice and clean. very quite. location close to where our family was gathering. Easy off and on freeway. Room was cleaned each day. Bed was comfortable. Good reading light beside bed. Small area for breakfast but good selection of food.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>nice and clean. very quite. location close to where our family was gathering. Easy off and on freeway. Room was cleaned each day. Bed was comfortable. Good reading light beside bed. Small area for breakfast but good selection of food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r374661690-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374661690</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Review of stay</t>
+  </si>
+  <si>
+    <t>The unit was clean.  Unit was small but comfortable.  The breakfast was good.  Staff very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The unit was clean.  Unit was small but comfortable.  The breakfast was good.  Staff very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r357830505-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357830505</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Room smelled like cigarette smoke</t>
+  </si>
+  <si>
+    <t>We stayed in room 116 for two nights.  I called the office after checking out and informed him that glow in the dark  fluorescent green handprints were on the wallMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in room 116 for two nights.  I called the office after checking out and informed him that glow in the dark  fluorescent green handprints were on the wallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r357036746-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357036746</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Great service and compassion</t>
+  </si>
+  <si>
+    <t>Our family booked a room here for the Houston stockshow, our daughter was showing her pig. Unfortunately we got an emergency call to go home due to my father-in-law being put on life support. When I went in the office to cancel the rest of our stay, the attendant was very compassionate and courteous and got us all of our money back with no penalties for cancellation. I would definitely recommend this hotel to others. The room was great, the service even better! MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Our family booked a room here for the Houston stockshow, our daughter was showing her pig. Unfortunately we got an emergency call to go home due to my father-in-law being put on life support. When I went in the office to cancel the rest of our stay, the attendant was very compassionate and courteous and got us all of our money back with no penalties for cancellation. I would definitely recommend this hotel to others. The room was great, the service even better! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r356886060-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356886060</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>you can hear the traffic on 10 from your room, but the place was clean, and affordable.  I didn't not eat breakfast there, or use any amenities, just went to bed, if that is all you are looking to do, it should serve you well.MoreShow less</t>
+  </si>
+  <si>
+    <t>you can hear the traffic on 10 from your room, but the place was clean, and affordable.  I didn't not eat breakfast there, or use any amenities, just went to bed, if that is all you are looking to do, it should serve you well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r348602621-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348602621</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r335540748-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335540748</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r334106900-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334106900</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Clean room. Period.</t>
+  </si>
+  <si>
+    <t>Lots of road noise.  Breakfast area was VERY small. Food was edible. Parking lot was tiny. no elevator to access upstairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Lots of road noise.  Breakfast area was VERY small. Food was edible. Parking lot was tiny. no elevator to access upstairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r331086424-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331086424</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Forgotten items not turned in</t>
+  </si>
+  <si>
+    <t>Outside of the property is outdated, but the rooms were clean and the furniture and bedding seemed to have been updated.  My only issue is that I left a pair of boots in the room when I checked out, and when I realized it a few days later and called, the staff member working the desk didn't know anything about it.  I guess housekeeping swiped them.  MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Outside of the property is outdated, but the rooms were clean and the furniture and bedding seemed to have been updated.  My only issue is that I left a pair of boots in the room when I checked out, and when I realized it a few days later and called, the staff member working the desk didn't know anything about it.  I guess housekeeping swiped them.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r325908831-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325908831</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>The room was nice. Only thing was I needed buy spray...</t>
+  </si>
+  <si>
+    <t>The room was nice. Only thing was I needed buy spray because I was eaten alive by mosquitos. The phone didn't work to call the front desk had use my cell phone. Heater didn't work it would trip every time I turned it on. I fell in love there with my partner but don't think I will be coming back. I was eaten alive and cold MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>The room was nice. Only thing was I needed buy spray because I was eaten alive by mosquitos. The phone didn't work to call the front desk had use my cell phone. Heater didn't work it would trip every time I turned it on. I fell in love there with my partner but don't think I will be coming back. I was eaten alive and cold More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r323626297-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323626297</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Clean, no frills</t>
+  </si>
+  <si>
+    <t>Good location, clean, no frills hotel. Still offering smoking rooms, which is a rare convenience. Plenty of parking. Strong wifi signal, for free. Starbucks and some more than decent restaurants within walking distance. Good value. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Good location, clean, no frills hotel. Still offering smoking rooms, which is a rare convenience. Plenty of parking. Strong wifi signal, for free. Starbucks and some more than decent restaurants within walking distance. Good value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r312858563-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312858563</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r298070548-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298070548</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Nice room!</t>
+  </si>
+  <si>
+    <t>Only spent one night with my b/f and didn't spend much time in the room since we were in town for my birthday and my mom took us places. Overall though a very nice quiet property with delicious breakfast, comfortable bed. Only a few things not up to par: tub could not be used as a tub d/t stopper was broken. Would have really liked to have very small freezer compartment in the little fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Only spent one night with my b/f and didn't spend much time in the room since we were in town for my birthday and my mom took us places. Overall though a very nice quiet property with delicious breakfast, comfortable bed. Only a few things not up to par: tub could not be used as a tub d/t stopper was broken. Would have really liked to have very small freezer compartment in the little fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r294505486-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294505486</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for price</t>
+  </si>
+  <si>
+    <t>Overall this was a nice facility. Fairly small,quiet and peaceful place. Its so close from all the landmarks where we had visited.The beds were nice n comfy and the room was very clean.Very friendly people we had requested for ground floor he had given us that room without saying anything.In the morning breakfast were very nice.Internet had awesome speed all the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Overall this was a nice facility. Fairly small,quiet and peaceful place. Its so close from all the landmarks where we had visited.The beds were nice n comfy and the room was very clean.Very friendly people we had requested for ground floor he had given us that room without saying anything.In the morning breakfast were very nice.Internet had awesome speed all the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r278047805-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278047805</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r272408250-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272408250</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded May 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r270729004-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270729004</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Clean, good location</t>
+  </si>
+  <si>
+    <t>Good location, very clean, one of the few places that still offers smoking rooms. Less than 15 minutes from downtown by car. Starbucks, good restaurants minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Good location, very clean, one of the few places that still offers smoking rooms. Less than 15 minutes from downtown by car. Starbucks, good restaurants minutes away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r258652221-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258652221</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r258553418-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258553418</t>
+  </si>
+  <si>
+    <t>Ho Jo Downtown Houston</t>
+  </si>
+  <si>
+    <t>Another plaeasant stay at this motel.Walked in without a reservation, was treated well by the desk clerk, who actually took the time to make sure the type of room i was looking for was available...Nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Another plaeasant stay at this motel.Walked in without a reservation, was treated well by the desk clerk, who actually took the time to make sure the type of room i was looking for was available...Nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r257533682-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257533682</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Quick, quiet, and comfortable stay</t>
+  </si>
+  <si>
+    <t>Although we were only there a few hours, we found the hotel very condusive.we had a smoke-free room that was actually smoke smell-free. The parking lot was smaller than the occupancy, forcing us to park out on the street, but that wasn't really an issue. The continental breakfast was pretty weak. I would have not have missed it if it were simply not offered, in place of what was there. Friendly and professional at the desk and the room was quite nice. I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Although we were only there a few hours, we found the hotel very condusive.we had a smoke-free room that was actually smoke smell-free. The parking lot was smaller than the occupancy, forcing us to park out on the street, but that wasn't really an issue. The continental breakfast was pretty weak. I would have not have missed it if it were simply not offered, in place of what was there. Friendly and professional at the desk and the room was quite nice. I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r244321361-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244321361</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r241316480-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241316480</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>From check in to check out, we had a great stay!  The hotel accommodated our request for a downstairs/smoking room.  It was also in a great location for our trip.  The staff was very friendly too.   Next time we are in Houston, we will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>From check in to check out, we had a great stay!  The hotel accommodated our request for a downstairs/smoking room.  It was also in a great location for our trip.  The staff was very friendly too.   Next time we are in Houston, we will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r240968479-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240968479</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r225165442-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225165442</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r222269097-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222269097</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>last night there guest above me were VERY loud. I ask them...</t>
+  </si>
+  <si>
+    <t>last night there guest above me were VERY loud. I ask them to please be quiet and it did no good. Told the guy at the front desk. I did not sleep until after 4am</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r210017249-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210017249</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Such A Surprise</t>
+  </si>
+  <si>
+    <t>I was on the fence about this one but after staying I must say what a fun filled surprise. Dont get me wrong it was just the basic Motel-hotel, But it was nice and very friendly so I have no complaints but I cant rant and rave about it either</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r200633217-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200633217</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>good.</t>
+  </si>
+  <si>
+    <t>stayed here for a concert at the toyota center, wasent that far from the venue and easy to find. the staff was very nice. beds were comfortable. location was great. housekeeping and parking could improve, but all in all i enjoyed my stay. i would choose this hotel again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r200039151-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200039151</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r199692386-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199692386</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r196331320-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196331320</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>If you need to be close to downtown but don't want to be in downtown and pay the downtown prices and you don't care about anything but a clean bed, this would be ok. This place is right on the freeway so there is extreme freeway noise although not too bad in the room.  The area does not feel very safe--there is a bulletproof window by the desk clerk if that is a clue. The "breakfast" is a joke in a space maybe 8' x 8' with no seating--it has toast and waffles and cereal but it really feels cheap. The staff other than the desk clerk were very polite and helpful.  The free wi fi was very good.  Otherwise, definitely a "no frills" hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2014</t>
+  </si>
+  <si>
+    <t>If you need to be close to downtown but don't want to be in downtown and pay the downtown prices and you don't care about anything but a clean bed, this would be ok. This place is right on the freeway so there is extreme freeway noise although not too bad in the room.  The area does not feel very safe--there is a bulletproof window by the desk clerk if that is a clue. The "breakfast" is a joke in a space maybe 8' x 8' with no seating--it has toast and waffles and cereal but it really feels cheap. The staff other than the desk clerk were very polite and helpful.  The free wi fi was very good.  Otherwise, definitely a "no frills" hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r195100516-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195100516</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>Stayed here over night, between connecting flights, convenient location close to the airport. We were a family of 4, even though the floor did not appear to be too clean, the beds and the bathroom were, overall ok stay for the price. The man at the check-in counter was very friendly and accomodating, gave us tips when to wake up and catch the shuttle which waited for us at the front door as we were enjoying a great complimentary breakfast. Would stay here again for the price ($50).</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r194405265-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194405265</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Hell Hole</t>
+  </si>
+  <si>
+    <t>A long list.  Non smoking room reeked of smoke.  refrigerator was full of leftovers, pizza,  stale beer and other stuff.  TV did not work, No signal.  No as in 0 hot water. An ice bag covered the smoke detector, I removed it in case this fire trap went up in flames while I slept.  the next morning a truck had parked behind my car and completely  blocked it.  The manager could not find the owner because they don't take car information from guests. I threatened to set off my car alarm till someone moved.  they went to each room to find the owner.   They charged me more than quoted -$93.00 for this Hell Hole.  I was in no mood to argue once I could get my car out.    The only good thing was it was otherwise fairly clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2014</t>
+  </si>
+  <si>
+    <t>A long list.  Non smoking room reeked of smoke.  refrigerator was full of leftovers, pizza,  stale beer and other stuff.  TV did not work, No signal.  No as in 0 hot water. An ice bag covered the smoke detector, I removed it in case this fire trap went up in flames while I slept.  the next morning a truck had parked behind my car and completely  blocked it.  The manager could not find the owner because they don't take car information from guests. I threatened to set off my car alarm till someone moved.  they went to each room to find the owner.   They charged me more than quoted -$93.00 for this Hell Hole.  I was in no mood to argue once I could get my car out.    The only good thing was it was otherwise fairly clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r189207475-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189207475</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Brush up on your plumbing skills and morse code techniques before you check in!</t>
+  </si>
+  <si>
+    <t>Appearance of the room was nice and sleek. Location very secluded in the area and overlooks the express way.  Many empty homes in the area. Servers friendly but no common sense.Service of the Hotel.  I woke up to find that my toilet was clogged for whatever reason.  Nothing was visually in the toilet but tissue.  Tried to call front desk but the phone did not work to dial out. I walked around to the front and told the front desk.  She handed me a plunger????? O-o.Did you just hand me a plunger after I paid $104 with tax? I took the plunger and tried to fix it with no success.  I went back to front desk because the phone was still not working.  She handed me another plunger and I let her have it.  I informed her that I did not pay to stay and do their plumbing too!  This was not good customer service. She then offered another room for us to use instead, but I check out in 3 hours so whatever.  Not pleased at all and really grossed out!MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Appearance of the room was nice and sleek. Location very secluded in the area and overlooks the express way.  Many empty homes in the area. Servers friendly but no common sense.Service of the Hotel.  I woke up to find that my toilet was clogged for whatever reason.  Nothing was visually in the toilet but tissue.  Tried to call front desk but the phone did not work to dial out. I walked around to the front and told the front desk.  She handed me a plunger????? O-o.Did you just hand me a plunger after I paid $104 with tax? I took the plunger and tried to fix it with no success.  I went back to front desk because the phone was still not working.  She handed me another plunger and I let her have it.  I informed her that I did not pay to stay and do their plumbing too!  This was not good customer service. She then offered another room for us to use instead, but I check out in 3 hours so whatever.  Not pleased at all and really grossed out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r182885682-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182885682</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r182023998-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182023998</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I only chose this hotel because I did not want to pay 250 dollars for a downtown hotel room for one night. The location is about 5 miles away from any downtown attractions. We went to the Toyota center to watch an attraction. It was very easy to get to the hotel and back. The location is under construction so there are a bunch of bumps in the road. The room was pretty spacious, with a microwave and fridge. I'll probably stay here again if I can't find anything cheaper the next time. The staff were nice, granted, I never had to speak to them unless to check in or out.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only chose this hotel because I did not want to pay 250 dollars for a downtown hotel room for one night. The location is about 5 miles away from any downtown attractions. We went to the Toyota center to watch an attraction. It was very easy to get to the hotel and back. The location is under construction so there are a bunch of bumps in the road. The room was pretty spacious, with a microwave and fridge. I'll probably stay here again if I can't find anything cheaper the next time. The staff were nice, granted, I never had to speak to them unless to check in or out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r175133039-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175133039</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r173271197-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173271197</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and affordable!</t>
+  </si>
+  <si>
+    <t>We are so glad we chose to stay here last week when we were in Houston for a family funeral.  The room was large with a refrig, and microwave.  We enjoyed the HOT delicious breakfast in the morning too.  The staff was courteous and friendly.  The King bed was very comfortable and everything was very clean and fresh looking.  The wi-fi worked great!   Choose this motel and you won't go wrong!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r171411420-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171411420</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r157558112-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157558112</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r157265785-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157265785</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found this simple motel room a very good value.  Nothing fancy, but we slept like babies - and to us that is more important than dishing out lots of hard earned cash for a fancy place.  I will stay here next time we are in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r157125315-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157125315</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>What a change! Love it</t>
+  </si>
+  <si>
+    <t>I stayed at this same hotel a few years ago and wasn't too impressed. There was nothing extremely horrible about it back then, but it just didn't feel like a pleasant stay. Chose to stay here again because of the convenient location (not far from downtown) and what a change this hotel has made. I recently stayed here again earlier this month and I cannot say enough good things about this hotel. My family and I were surprised and delighted. First off, the entire hotel looks different. The new paint and style of the rooms definitely upped the look of it. The rooms are great. Comfortable beds in big rooms. We rented two rooms for five people (two adults and three children) and the front desk lady was kind enough to give us two rooms that were right next to each other. Yeah it's not that big of a deal, but just the fact that we didn't even ask for it and that the hotel looked pretty booked made it a nice gesture to us. The breakfast definitely upgraded from the last time. Sausage, eggs, waffles, muffins, cereal, coffee, etc. Lobby is small so we happily enjoyed our breakfast in our rooms. My family and I really enjoyed our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this same hotel a few years ago and wasn't too impressed. There was nothing extremely horrible about it back then, but it just didn't feel like a pleasant stay. Chose to stay here again because of the convenient location (not far from downtown) and what a change this hotel has made. I recently stayed here again earlier this month and I cannot say enough good things about this hotel. My family and I were surprised and delighted. First off, the entire hotel looks different. The new paint and style of the rooms definitely upped the look of it. The rooms are great. Comfortable beds in big rooms. We rented two rooms for five people (two adults and three children) and the front desk lady was kind enough to give us two rooms that were right next to each other. Yeah it's not that big of a deal, but just the fact that we didn't even ask for it and that the hotel looked pretty booked made it a nice gesture to us. The breakfast definitely upgraded from the last time. Sausage, eggs, waffles, muffins, cereal, coffee, etc. Lobby is small so we happily enjoyed our breakfast in our rooms. My family and I really enjoyed our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r150686734-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150686734</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r147141808-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147141808</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r144767791-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144767791</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Visiting Houston for a Quilt Show</t>
+  </si>
+  <si>
+    <t>Our room was large, clean and well furnished. We loved the hot breakfast, excellent a/c, convenient parking. I was grouchy when we checked in and the receptionist was patient and kind. Construction in the immediate area made the location a real learning experience. My sister and I were attending the International Quilt Festival at the George Brown Convention Center, so that part of the location was good.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r141279247-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141279247</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>air conditioner noise</t>
+  </si>
+  <si>
+    <t>the air conditioner groaned continually at a level that prevented sleep.We asked for a new room, but the alternative room offered smelled bad.It is obvious that remodeling is occurring, but it should include fundamental changes like replacing failed utilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2012</t>
+  </si>
+  <si>
+    <t>the air conditioner groaned continually at a level that prevented sleep.We asked for a new room, but the alternative room offered smelled bad.It is obvious that remodeling is occurring, but it should include fundamental changes like replacing failed utilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r136138224-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136138224</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>MOLD ON WALL, MOLDY GARBAGE UNDER MOLDY MATTRESS</t>
+  </si>
+  <si>
+    <t>Dear Sirs,I am Assistant Director of a language academy in Denver (30+ employees). My business booked late (end of June 2012) for a NAFSA (educators') Conference and Howard Johnson Inn Katy Freeway was the only place with available rooms. When I arrived I noticed the room smelled musty, but since it was late I just went to bed. When I returned from the conference the next evening, I noticed mold in the corner of my room and determined to leave first thing the next day because of the hour. However, while in bed something bit me and I decided to check under the mattress (between the mattress and box spring). There I found moldy garbage: a plastic bag with some mystery material inside wrapped in paper towels as well as a mold filled serving tray which had permeated the mattress above with mold. I took photos of all this with the night manager present. I left that same evening for another hotel. The next day I was treated very rudely and sarcasticly when I called to talk about the matter. As a client I was sickened. Any hotel that allows the premises to deteriorate to the condition this hotel is in despises and resents their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2012</t>
+  </si>
+  <si>
+    <t>Dear Sirs,I am Assistant Director of a language academy in Denver (30+ employees). My business booked late (end of June 2012) for a NAFSA (educators') Conference and Howard Johnson Inn Katy Freeway was the only place with available rooms. When I arrived I noticed the room smelled musty, but since it was late I just went to bed. When I returned from the conference the next evening, I noticed mold in the corner of my room and determined to leave first thing the next day because of the hour. However, while in bed something bit me and I decided to check under the mattress (between the mattress and box spring). There I found moldy garbage: a plastic bag with some mystery material inside wrapped in paper towels as well as a mold filled serving tray which had permeated the mattress above with mold. I took photos of all this with the night manager present. I left that same evening for another hotel. The next day I was treated very rudely and sarcasticly when I called to talk about the matter. As a client I was sickened. Any hotel that allows the premises to deteriorate to the condition this hotel is in despises and resents their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r132047508-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132047508</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Not the convention hotel but $100 per night less</t>
+  </si>
+  <si>
+    <t>The room appeared to have been recently painted and was very clean. It was missing one light bulb but that was taken care of promptly. Parking would be aproblem if all the rooms were occupied but we had no problem. Breakfast didn't match what we have found at Best Westerns but it was adequate. Staff was friendly and responded to every request promptly. Major problem was the construction going on the access road and that's not the hotel's fault.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2012</t>
+  </si>
+  <si>
+    <t>The room appeared to have been recently painted and was very clean. It was missing one light bulb but that was taken care of promptly. Parking would be aproblem if all the rooms were occupied but we had no problem. Breakfast didn't match what we have found at Best Westerns but it was adequate. Staff was friendly and responded to every request promptly. Major problem was the construction going on the access road and that's not the hotel's fault.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r82920638-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>82920638</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>Great stay for the price</t>
+  </si>
+  <si>
+    <t>This is the second time my family and I stayed at this property. Although, the first time was a bit unpleasant, the second time was much better. The front desk clerk was very was nice; He made jokes and really seemed like he enjoyed us staying there. The bath towels were thin, but other than that, there were no problems with the room. I would definitely recommend this hotel to others and I do plan on staying here again.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r57792933-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57792933</t>
+  </si>
+  <si>
+    <t>03/05/2010</t>
+  </si>
+  <si>
+    <t>No Fitted Sheets!</t>
+  </si>
+  <si>
+    <t>We checked into the hotel around 7PM and was given a nonsmoking room.  Upon entering, the first thing we noticed was the smell of fresh paint, not bad.  Wanted to turn on some heat, one of knobs was missing.  Called manager who brought us another one to use.  Room was clean and heat/air worked fine.    There is free internet if you bring your own laptop but did not feel safe about leaving it in the room.  We only had 2 thin bath towels so we had to go ask the manager for a couple more.  There is a microwave and small refrigerator in room that worked fine.  Also a 4 cup coffee maker but after the first day no coffee was left.  Upon going to bed, there was no mattress cover over mattress, sheets were very thin and the bottom sheet was a flat sheet, not fitted, not even tucked in so all night the bottom sheet was tangled but the bed itself is very comfortable as well as the pillows.   You can hear trains at night and the highway out front.  The next morning we went down for the contential breakfast which consisted of fruit, cereal, powered donuts, bread and whole milk.  Asked for skim milk and was told they didn't have any.  We stayed 3 nights and each morning when we went for breakfast the same woman working at the desk did not even greet us or acknowledge...We checked into the hotel around 7PM and was given a nonsmoking room.  Upon entering, the first thing we noticed was the smell of fresh paint, not bad.  Wanted to turn on some heat, one of knobs was missing.  Called manager who brought us another one to use.  Room was clean and heat/air worked fine.    There is free internet if you bring your own laptop but did not feel safe about leaving it in the room.  We only had 2 thin bath towels so we had to go ask the manager for a couple more.  There is a microwave and small refrigerator in room that worked fine.  Also a 4 cup coffee maker but after the first day no coffee was left.  Upon going to bed, there was no mattress cover over mattress, sheets were very thin and the bottom sheet was a flat sheet, not fitted, not even tucked in so all night the bottom sheet was tangled but the bed itself is very comfortable as well as the pillows.   You can hear trains at night and the highway out front.  The next morning we went down for the contential breakfast which consisted of fruit, cereal, powered donuts, bread and whole milk.  Asked for skim milk and was told they didn't have any.  We stayed 3 nights and each morning when we went for breakfast the same woman working at the desk did not even greet us or acknowledge we were even there.  Completely ignored us like she could care less if we were staying at her establishment.  She was walking around in the lobby and outside bear footed!!  We stayed here because my husband had a conference at the convention center downtown and it was easy to get to.  Will we stay here again, probably not.  Did not like the way we were ignored, no mattress cover over the mattress is just gross and I want to sleep in a bed with fitted sheets that are not so thin you can see thru them.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2012</t>
+  </si>
+  <si>
+    <t>We checked into the hotel around 7PM and was given a nonsmoking room.  Upon entering, the first thing we noticed was the smell of fresh paint, not bad.  Wanted to turn on some heat, one of knobs was missing.  Called manager who brought us another one to use.  Room was clean and heat/air worked fine.    There is free internet if you bring your own laptop but did not feel safe about leaving it in the room.  We only had 2 thin bath towels so we had to go ask the manager for a couple more.  There is a microwave and small refrigerator in room that worked fine.  Also a 4 cup coffee maker but after the first day no coffee was left.  Upon going to bed, there was no mattress cover over mattress, sheets were very thin and the bottom sheet was a flat sheet, not fitted, not even tucked in so all night the bottom sheet was tangled but the bed itself is very comfortable as well as the pillows.   You can hear trains at night and the highway out front.  The next morning we went down for the contential breakfast which consisted of fruit, cereal, powered donuts, bread and whole milk.  Asked for skim milk and was told they didn't have any.  We stayed 3 nights and each morning when we went for breakfast the same woman working at the desk did not even greet us or acknowledge...We checked into the hotel around 7PM and was given a nonsmoking room.  Upon entering, the first thing we noticed was the smell of fresh paint, not bad.  Wanted to turn on some heat, one of knobs was missing.  Called manager who brought us another one to use.  Room was clean and heat/air worked fine.    There is free internet if you bring your own laptop but did not feel safe about leaving it in the room.  We only had 2 thin bath towels so we had to go ask the manager for a couple more.  There is a microwave and small refrigerator in room that worked fine.  Also a 4 cup coffee maker but after the first day no coffee was left.  Upon going to bed, there was no mattress cover over mattress, sheets were very thin and the bottom sheet was a flat sheet, not fitted, not even tucked in so all night the bottom sheet was tangled but the bed itself is very comfortable as well as the pillows.   You can hear trains at night and the highway out front.  The next morning we went down for the contential breakfast which consisted of fruit, cereal, powered donuts, bread and whole milk.  Asked for skim milk and was told they didn't have any.  We stayed 3 nights and each morning when we went for breakfast the same woman working at the desk did not even greet us or acknowledge we were even there.  Completely ignored us like she could care less if we were staying at her establishment.  She was walking around in the lobby and outside bear footed!!  We stayed here because my husband had a conference at the convention center downtown and it was easy to get to.  Will we stay here again, probably not.  Did not like the way we were ignored, no mattress cover over the mattress is just gross and I want to sleep in a bed with fitted sheets that are not so thin you can see thru them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r47320798-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>47320798</t>
+  </si>
+  <si>
+    <t>10/20/2009</t>
+  </si>
+  <si>
+    <t>Bad Service</t>
+  </si>
+  <si>
+    <t>I recommend not staying at this hotel...we got there 20 minutes before check in and the manager placed us on the second floor facing a wall in the corner.  There were only 2 cars and we ask to change room; he was rude and sarcastic stating that we are lucky we had a room and would not give our money back even though we were unsatified.  Bad customer service!  when we went to the hotel room there was a horrible ordor!  We called corporate and got our money back...if you looking for a hotel I recommended staying at the Comfort Inn down the block. Be recommended that this is not the safest looking area in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I recommend not staying at this hotel...we got there 20 minutes before check in and the manager placed us on the second floor facing a wall in the corner.  There were only 2 cars and we ask to change room; he was rude and sarcastic stating that we are lucky we had a room and would not give our money back even though we were unsatified.  Bad customer service!  when we went to the hotel room there was a horrible ordor!  We called corporate and got our money back...if you looking for a hotel I recommended staying at the Comfort Inn down the block. Be recommended that this is not the safest looking area in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r25717550-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25717550</t>
+  </si>
+  <si>
+    <t>03/06/2009</t>
+  </si>
+  <si>
+    <t>What's With All The Bad Reviews?</t>
+  </si>
+  <si>
+    <t>I'm currently at this hotel, and don't understand all the bad reviews.  The check-in was quick and pleasant, the room is clean and adequately stocked (although the towels are a bit thin), the furniture is nice (looks fairly new), and the bed comfortable.  The linens on the bed are clean and acceptable.The immediate block surrounding the hotel is industrial, but if you go 3 or 4 blocks in any direction, it becomes a quite pleasant residential area.  There is a big selection of restaurants in the area, but if you prefer, there is a large Kroger Superstore within 2 miles so you can just stock up the in-room fridge and use the microwave to heat things up.I would definetly stay here again, and would recommend to friends and clients (I am a travel agent)  that need a nice, inexpensive place to stay that is close to downtown Houston, without being right in downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I'm currently at this hotel, and don't understand all the bad reviews.  The check-in was quick and pleasant, the room is clean and adequately stocked (although the towels are a bit thin), the furniture is nice (looks fairly new), and the bed comfortable.  The linens on the bed are clean and acceptable.The immediate block surrounding the hotel is industrial, but if you go 3 or 4 blocks in any direction, it becomes a quite pleasant residential area.  There is a big selection of restaurants in the area, but if you prefer, there is a large Kroger Superstore within 2 miles so you can just stock up the in-room fridge and use the microwave to heat things up.I would definetly stay here again, and would recommend to friends and clients (I am a travel agent)  that need a nice, inexpensive place to stay that is close to downtown Houston, without being right in downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r25165057-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25165057</t>
+  </si>
+  <si>
+    <t>02/25/2009</t>
+  </si>
+  <si>
+    <t>Worst stay ever!!</t>
+  </si>
+  <si>
+    <t>Me and my family decided to stay there for a weekend because we thought we got a really good deal off of priceline.com. Well let me just tell you I wouldn't recommend this hotel to a homeless person. The staff was very unfriendly and their so called cont. breakfast consist of stale cereal and old cofee. The room was very gloomy and the bed linens was probably from 1954. I wouldn't  even give it 1 star! The office is very stinky it was swormed with Arab people and they had about 12 insense lit at once. Also everytime you walked out of your room the staff starres you down through the blinds; very scary people.Trust me stay at a Motel 6 or better!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Me and my family decided to stay there for a weekend because we thought we got a really good deal off of priceline.com. Well let me just tell you I wouldn't recommend this hotel to a homeless person. The staff was very unfriendly and their so called cont. breakfast consist of stale cereal and old cofee. The room was very gloomy and the bed linens was probably from 1954. I wouldn't  even give it 1 star! The office is very stinky it was swormed with Arab people and they had about 12 insense lit at once. Also everytime you walked out of your room the staff starres you down through the blinds; very scary people.Trust me stay at a Motel 6 or better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r24088589-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24088589</t>
+  </si>
+  <si>
+    <t>02/01/2009</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Me, my wife, my daughter and my grandson all decided that we needed a little weekend retreat so on the10th we booked in advance our stay here for the following week, the weekend of the 16th.
+We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".
+A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. 
+The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there...Me, my wife, my daughter and my grandson all decided that we needed a little weekend retreat so on the10th we booked in advance our stay here for the following week, the weekend of the 16th.We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there a car did get stolen. At night it wasn't any better, gunshots, yelling and some type of sound I can't even describe were always being heard at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Me, my wife, my daughter and my grandson all decided that we needed a little weekend retreat so on the10th we booked in advance our stay here for the following week, the weekend of the 16th.
+We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".
+A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. 
+The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there...Me, my wife, my daughter and my grandson all decided that we needed a little weekend retreat so on the10th we booked in advance our stay here for the following week, the weekend of the 16th.We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there a car did get stolen. At night it wasn't any better, gunshots, yelling and some type of sound I can't even describe were always being heard at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r5224894-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5224894</t>
+  </si>
+  <si>
+    <t>05/25/2006</t>
+  </si>
+  <si>
+    <t>Roaches in Hotel!!!</t>
+  </si>
+  <si>
+    <t>We landed for the graduation this year and expected a good treatment.  We were given a warm reception to a room where the shower water force was milder than the tap.  We requested for a room change.  Now we were in for another surprise - ROACHES!!! strewn  over the floor.  Secondly, the bathroom door wouldn't close at all - an oversize door!  The response from the management is absolutely negative.  We were given only three towels for a family of four!Truly speaking, I should get my refund.  I will never go to a Howard Johnson again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We landed for the graduation this year and expected a good treatment.  We were given a warm reception to a room where the shower water force was milder than the tap.  We requested for a room change.  Now we were in for another surprise - ROACHES!!! strewn  over the floor.  Secondly, the bathroom door wouldn't close at all - an oversize door!  The response from the management is absolutely negative.  We were given only three towels for a family of four!Truly speaking, I should get my refund.  I will never go to a Howard Johnson again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r4071350-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4071350</t>
+  </si>
+  <si>
+    <t>10/28/2005</t>
+  </si>
+  <si>
+    <t>Unsafe, dirty.</t>
+  </si>
+  <si>
+    <t>Arrived before concert so had to check in and leave immediately but noticed right away that the room smelled bad, like urine? Plus neighborhood feels very unsafe, was worried about car, men hanging around staring rudely. Returned from concert &amp; realized room really did smell awful, plus stains on mattress pad showing through sheets. Noi way we were sleeping there. Left at 2am &amp; drove 3hours back home. Expedia lists this as a 2 star-- not even 1 star in my book!MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived before concert so had to check in and leave immediately but noticed right away that the room smelled bad, like urine? Plus neighborhood feels very unsafe, was worried about car, men hanging around staring rudely. Returned from concert &amp; realized room really did smell awful, plus stains on mattress pad showing through sheets. Noi way we were sleeping there. Left at 2am &amp; drove 3hours back home. Expedia lists this as a 2 star-- not even 1 star in my book!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r1138426-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1138426</t>
+  </si>
+  <si>
+    <t>07/15/2003</t>
+  </si>
+  <si>
+    <t>The manager himself is a rude person</t>
+  </si>
+  <si>
+    <t>I called to make reservations for a one night stay. I inquired the price and explained about the price I given on the internet and the gentleman at Howard Johnson was very short and sarcastic with me. He cut me off before i could even hang up. I called back to speak to the Manager and he said he was the Manager. I told him that I thought he was quite rude with me and he said "Well you are rude too." and hung up on me. I think that is a very unprofessional way to handle customer calls. We pay so much on room rates that we should be able to get room rate quotes in a nicer way. I would never stay there, judging by the way this Manger handled my call, I can imagine how he treats his guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>I called to make reservations for a one night stay. I inquired the price and explained about the price I given on the internet and the gentleman at Howard Johnson was very short and sarcastic with me. He cut me off before i could even hang up. I called back to speak to the Manager and he said he was the Manager. I told him that I thought he was quite rude with me and he said "Well you are rude too." and hung up on me. I think that is a very unprofessional way to handle customer calls. We pay so much on room rates that we should be able to get room rate quotes in a nicer way. I would never stay there, judging by the way this Manger handled my call, I can imagine how he treats his guests.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1936,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1968,4917 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>146</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>209</v>
+      </c>
+      <c r="X26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>226</v>
+      </c>
+      <c r="X28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>233</v>
+      </c>
+      <c r="X29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>257</v>
+      </c>
+      <c r="X32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>263</v>
+      </c>
+      <c r="X33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>278</v>
+      </c>
+      <c r="X36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>278</v>
+      </c>
+      <c r="X37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>263</v>
+      </c>
+      <c r="X39" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>306</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>323</v>
+      </c>
+      <c r="J44" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s">
+        <v>326</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>327</v>
+      </c>
+      <c r="O44" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" t="s">
+        <v>339</v>
+      </c>
+      <c r="K47" t="s">
+        <v>340</v>
+      </c>
+      <c r="L47" t="s">
+        <v>341</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>327</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>342</v>
+      </c>
+      <c r="X47" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s">
+        <v>349</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>350</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>354</v>
+      </c>
+      <c r="L49" t="s">
+        <v>355</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>350</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>356</v>
+      </c>
+      <c r="X49" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J50" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" t="s">
+        <v>362</v>
+      </c>
+      <c r="L50" t="s">
+        <v>363</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>364</v>
+      </c>
+      <c r="X50" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>368</v>
+      </c>
+      <c r="J51" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J52" t="s">
+        <v>373</v>
+      </c>
+      <c r="K52" t="s">
+        <v>374</v>
+      </c>
+      <c r="L52" t="s">
+        <v>375</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>378</v>
+      </c>
+      <c r="J53" t="s">
+        <v>379</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="K57" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>392</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>407</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>408</v>
+      </c>
+      <c r="X59" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>413</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>414</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>415</v>
+      </c>
+      <c r="J61" t="s">
+        <v>416</v>
+      </c>
+      <c r="K61" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" t="s">
+        <v>418</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>419</v>
+      </c>
+      <c r="O61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" t="s">
+        <v>422</v>
+      </c>
+      <c r="K62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>425</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>426</v>
+      </c>
+      <c r="X62" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>430</v>
+      </c>
+      <c r="J63" t="s">
+        <v>431</v>
+      </c>
+      <c r="K63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63" t="s">
+        <v>433</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>434</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>435</v>
+      </c>
+      <c r="X63" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>434</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>443</v>
+      </c>
+      <c r="X64" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L65" t="s">
+        <v>450</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>452</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>453</v>
+      </c>
+      <c r="J66" t="s">
+        <v>454</v>
+      </c>
+      <c r="K66" t="s">
+        <v>455</v>
+      </c>
+      <c r="L66" t="s">
+        <v>456</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>458</v>
+      </c>
+      <c r="X66" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>458</v>
+      </c>
+      <c r="X67" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>468</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>469</v>
+      </c>
+      <c r="J68" t="s">
+        <v>470</v>
+      </c>
+      <c r="K68" t="s">
+        <v>471</v>
+      </c>
+      <c r="L68" t="s">
+        <v>472</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>473</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>475</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>476</v>
+      </c>
+      <c r="J69" t="s">
+        <v>477</v>
+      </c>
+      <c r="K69" t="s">
+        <v>478</v>
+      </c>
+      <c r="L69" t="s">
+        <v>479</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>480</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>458</v>
+      </c>
+      <c r="X69" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>482</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>483</v>
+      </c>
+      <c r="J70" t="s">
+        <v>484</v>
+      </c>
+      <c r="K70" t="s">
+        <v>485</v>
+      </c>
+      <c r="L70" t="s">
+        <v>486</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>487</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>458</v>
+      </c>
+      <c r="X70" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>489</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>490</v>
+      </c>
+      <c r="J71" t="s">
+        <v>491</v>
+      </c>
+      <c r="K71" t="s">
+        <v>492</v>
+      </c>
+      <c r="L71" t="s">
+        <v>493</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>458</v>
+      </c>
+      <c r="X71" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>495</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>496</v>
+      </c>
+      <c r="J72" t="s">
+        <v>497</v>
+      </c>
+      <c r="K72" t="s">
+        <v>498</v>
+      </c>
+      <c r="L72" t="s">
+        <v>499</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>458</v>
+      </c>
+      <c r="X72" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>501</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K73" t="s">
+        <v>504</v>
+      </c>
+      <c r="L73" t="s">
+        <v>505</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>458</v>
+      </c>
+      <c r="X73" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_387.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_387.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="778">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r567498138-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107903</t>
+  </si>
+  <si>
+    <t>567498138</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Good location, ok property</t>
+  </si>
+  <si>
+    <t>The location here is awesome! Minuets away from tons of restaurants in the hip neighborhood of university heights.  The hotel is actually a motel and the sound carry very easily from outside noise to inside the rooms.  The property has just been renovated but the quality of bedding, pillows, ect is still pretty cheap feeling.  Good value but wouldn't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>The location here is awesome! Minuets away from tons of restaurants in the hip neighborhood of university heights.  The hotel is actually a motel and the sound carry very easily from outside noise to inside the rooms.  The property has just been renovated but the quality of bedding, pillows, ect is still pretty cheap feeling.  Good value but wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r548934284-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548934284</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t>This was a mournful time for my husband because he lost his uncle. The stay was pleasant and helped to ease the pain of lost.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This was a mournful time for my husband because he lost his uncle. The stay was pleasant and helped to ease the pain of lost.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r564038973-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107903</t>
-  </si>
-  <si>
     <t>564038973</t>
   </si>
   <si>
@@ -174,18 +228,6 @@
     <t>Nice staff but old and loud. Very close to interstate and seems to attract patrons that like o hang out in parking lot and drink. Been in worse but won’t be back. Not very accessible to any decent restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 22, 2018</t>
-  </si>
-  <si>
     <t>Nice staff but old and loud. Very close to interstate and seems to attract patrons that like o hang out in parking lot and drink. Been in worse but won’t be back. Not very accessible to any decent restaurants.More</t>
   </si>
   <si>
@@ -222,6 +264,27 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r540949448-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540949448</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r538595760-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538595760</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r526775035-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,12 +342,36 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Way overpriced!!! Pictures on website are deceiving.   Selected this motel bc it was affiliated with Wyndham hotels, (which are usually nice facilities) and it's close to Medical Center. Considering it was $90/night, I figured it would be nice. My dad had a surgery scheduled early in the morning, so we drove in 2hrs to try and get some rest.  BIG MISTAKE..... 1)The room smelled so bad it  was hard to breathe, Very moldy and musty.  2) Bathroom so small, could barely move....Paint peeling off the walls and rust stains.  3) Room was very small and just plain yucky!!!  Didnt really feel safe.I've spent alot less for way better rooms. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r507600464-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507600464</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>KRUPALI S, General Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 22, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r497677573-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497677573</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r496311801-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -294,9 +381,6 @@
     <t>06/26/2017</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -327,6 +411,45 @@
     <t>05/13/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r479563174-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479563174</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r467653392-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467653392</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>comfortable stay, roaches in bath room and something was burnt into the carpet.</t>
+  </si>
+  <si>
+    <t>The room was clean and the bed was very comfortable The hotel is close to the highway was very noisy. Very close to a lot of restaurants The breakfast was ok. There was something burnt into the carpet and we found roaches in the bathroom. The staff were very friendly. We were only there for two days. They need to address the bug problem. and repair the carpet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean and the bed was very comfortable The hotel is close to the highway was very noisy. Very close to a lot of restaurants The breakfast was ok. There was something burnt into the carpet and we found roaches in the bathroom. The staff were very friendly. We were only there for two days. They need to address the bug problem. and repair the carpet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r465588015-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,9 +459,6 @@
     <t>03/08/2017</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 13, 2017</t>
   </si>
   <si>
@@ -372,6 +492,27 @@
     <t>12/20/2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r441951550-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441951550</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r439047873-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439047873</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r437953939-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -387,9 +528,6 @@
     <t>This smaller Howard Johnson was well maintained and a good no-frills hotel.  The staff was friendly and helpful, and the rooms were clean.  It has a good location relative to the Heights and River Oaks, and is not all that far from downtown and midtown.  Situated on the I-10 access road, there was constant road noise, but something one perhaps could get used to.  It didn't disturb our sleep. Overall not a luxury place, but a reasonable deal for a night's stay.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded November 18, 2016</t>
   </si>
   <si>
@@ -438,6 +576,42 @@
     <t>Responded September 21, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r408073725-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408073725</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Close to Downtown - good stay</t>
+  </si>
+  <si>
+    <t>Room was very nice. Remodeled recently. Great affordable room, good breakfast in small office area! Staff was helpful. No problems. Code to Montrosse, Medical district and midtown. Great for one quick overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Room was very nice. Remodeled recently. Great affordable room, good breakfast in small office area! Staff was helpful. No problems. Code to Montrosse, Medical district and midtown. Great for one quick overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r404949885-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404949885</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r402158058-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,15 +627,6 @@
     <t>Very helpful staff.  Clean and well decorated room.  Quiet.  No problems for this thoroughly enjoyable stay!MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded August 22, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 22, 2016</t>
-  </si>
-  <si>
     <t>Very helpful staff.  Clean and well decorated room.  Quiet.  No problems for this thoroughly enjoyable stay!More</t>
   </si>
   <si>
@@ -507,6 +672,57 @@
     <t>The unit was clean.  Unit was small but comfortable.  The breakfast was good.  Staff very helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r367534429-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367534429</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Howard Johnson Express</t>
+  </si>
+  <si>
+    <t>This place was right off the highway so difficult to get to other places. We were able to go on back roads to get around. It looks like an old fashioned motel. Did not want to be on first floor being women traveling alone, but there were no elevators. Breakfast was available and decent considering how small the area. We were able to check out early morning with no problem.  Also appreciated the free parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>This place was right off the highway so difficult to get to other places. We were able to go on back roads to get around. It looks like an old fashioned motel. Did not want to be on first floor being women traveling alone, but there were no elevators. Breakfast was available and decent considering how small the area. We were able to check out early morning with no problem.  Also appreciated the free parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r366426089-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366426089</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Good value, good location</t>
+  </si>
+  <si>
+    <t>room was clean, comfortable and quiet, easy on and off from freeway,friendly enough desk staff, good restaurants in walking distance, good wifi MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2016</t>
+  </si>
+  <si>
+    <t>room was clean, comfortable and quiet, easy on and off from freeway,friendly enough desk staff, good restaurants in walking distance, good wifi More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r357830505-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -576,6 +792,57 @@
     <t>you can hear the traffic on 10 from your room, but the place was clean, and affordable.  I didn't not eat breakfast there, or use any amenities, just went to bed, if that is all you are looking to do, it should serve you well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r354228422-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354228422</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>over priced, not pleasant experience</t>
+  </si>
+  <si>
+    <t>This place was too expensive for what it had.  The bathroom and shower was way too small. The buffet  was terrible.  Those windows should be double paned, we heard the traffic all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>This place was too expensive for what it had.  The bathroom and shower was way too small. The buffet  was terrible.  Those windows should be double paned, we heard the traffic all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r351818753-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351818753</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Work Stay in Houston</t>
+  </si>
+  <si>
+    <t>We arrived a couple hours before check-in and only had to wait 10 minutes and our rooms were ready, without paying anything additional.  The desk clerk was very nice.  The rooms were clean and comfortable.  No issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>We arrived a couple hours before check-in and only had to wait 10 minutes and our rooms were ready, without paying anything additional.  The desk clerk was very nice.  The rooms were clean and comfortable.  No issues.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r348602621-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -585,9 +852,6 @@
     <t>02/17/2016</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r335540748-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -600,12 +864,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 1, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 1, 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r334106900-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -630,6 +888,30 @@
     <t>Lots of road noise.  Breakfast area was VERY small. Food was edible. Parking lot was tiny. no elevator to access upstairs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r334076637-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334076637</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r332301277-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332301277</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Marginally okay place with convenient location</t>
+  </si>
+  <si>
+    <t>The place is pretty nice for a Howard Johnson motel but there is always something not working and this time it was the TV. The WiFi was initially not allowing  access but it eventually came on and they do have a laptop at the front desk that is available.MoreShow less</t>
+  </si>
+  <si>
+    <t>The place is pretty nice for a Howard Johnson motel but there is always something not working and this time it was the TV. The WiFi was initially not allowing  access but it eventually came on and they do have a laptop at the front desk that is available.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r331086424-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -705,6 +987,54 @@
     <t>Good location, clean, no frills hotel. Still offering smoking rooms, which is a rare convenience. Plenty of parking. Strong wifi signal, for free. Starbucks and some more than decent restaurants within walking distance. Good value. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r320211750-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320211750</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Recent stay poor.</t>
+  </si>
+  <si>
+    <t>The room was poor based on the minimum I would what is hot water to take a shower.The water was cold.Front desk said they were having problems with hot water and thought were fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>The room was poor based on the minimum I would what is hot water to take a shower.The water was cold.Front desk said they were having problems with hot water and thought were fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r319645340-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319645340</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Excellent and clean</t>
+  </si>
+  <si>
+    <t>the room was very clean, mattress very comfortable, nice complimentary breakfast.  Very nice to have the fridge and  micro-wave oven in the room.  The room price was reasonable.  Nice courteous desk clerk as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>the room was very clean, mattress very comfortable, nice complimentary breakfast.  Very nice to have the fridge and  micro-wave oven in the room.  The room price was reasonable.  Nice courteous desk clerk as well. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r312858563-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1107,48 @@
     <t>Overall this was a nice facility. Fairly small,quiet and peaceful place. Its so close from all the landmarks where we had visited.The beds were nice n comfy and the room was very clean.Very friendly people we had requested for ground floor he had given us that room without saying anything.In the morning breakfast were very nice.Internet had awesome speed all the time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r289619630-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289619630</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>courteous and helpful front desk</t>
+  </si>
+  <si>
+    <t>Excellent location. Approximately 5 miles from the Downtown where the Greyhound bus &amp; train terminals exist. City Bus stops are within walking distance. Spacious well furnished A.C rooms. Food &amp; bar outlets nearby.Greatest of all the front desk staff consisting of Mr. Mayur Patel and  Mr. Alex are enthusiastic and extremely helpful.I enjoyed my stay of 5 daysMoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Excellent location. Approximately 5 miles from the Downtown where the Greyhound bus &amp; train terminals exist. City Bus stops are within walking distance. Spacious well furnished A.C rooms. Food &amp; bar outlets nearby.Greatest of all the front desk staff consisting of Mr. Mayur Patel and  Mr. Alex are enthusiastic and extremely helpful.I enjoyed my stay of 5 daysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r287301598-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287301598</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r278047805-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -786,9 +1158,6 @@
     <t>06/05/2015</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded June 7, 2015</t>
   </si>
   <si>
@@ -840,6 +1209,39 @@
     <t>Good location, very clean, one of the few places that still offers smoking rooms. Less than 15 minutes from downtown by car. Starbucks, good restaurants minutes away.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r269565308-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269565308</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Older Property in convenient location</t>
+  </si>
+  <si>
+    <t>This HoJo is old style two floor enter from the front and is showing its age. That said, the room was okay the only problem being the shower cut off would not work requiring one to stand in cold water till it warmed up.A tad pricey considering the property but I guess that is due to being fairly close to downtown Houston</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r261372071-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261372071</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Director of Sales at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r258652221-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -849,9 +1251,6 @@
     <t>03/09/2015</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 10, 2015</t>
   </si>
   <si>
@@ -894,6 +1293,48 @@
     <t>Although we were only there a few hours, we found the hotel very condusive.we had a smoke-free room that was actually smoke smell-free. The parking lot was smaller than the occupancy, forcing us to park out on the street, but that wasn't really an issue. The continental breakfast was pretty weak. I would have not have missed it if it were simply not offered, in place of what was there. Friendly and professional at the desk and the room was quite nice. I would stay there again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r255312329-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255312329</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Howard Johnson review</t>
+  </si>
+  <si>
+    <t>We stayed for 4 days and the Howard Johnson did a great job of maintaining the room and providing a good breakfast.  No complaints!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 4 days and the Howard Johnson did a great job of maintaining the room and providing a good breakfast.  No complaints!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r253586004-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253586004</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>torn shower curtains - smoky smelling room that was...</t>
+  </si>
+  <si>
+    <t>torn shower curtains - smoky smelling room that was supposedly smoke free - frayed linens on bed - tub that had no stopper - could only be used as a shower easily - no elevator - one table for 4 in the breakfast area - food only fair though a small variety was available  Not worth the priceMoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>torn shower curtains - smoky smelling room that was supposedly smoke free - frayed linens on bed - tub that had no stopper - could only be used as a shower easily - no elevator - one table for 4 in the breakfast area - food only fair though a small variety was available  Not worth the priceMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r244321361-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1380,36 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r238314559-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238314559</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r228648802-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228648802</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Clean and cheap</t>
+  </si>
+  <si>
+    <t>This is an excellent ECONOMY CLASS hotel. The room was bright and clean, furnished nicely with a desk and office type chair, free Wi-Fi, good TV with an amazing number of channels, and enough on the free breakfast to get you going for the day. There is no restaurant, no pool, and not a lot of other amenities. But for an overnight stay close to downtown, with easy off and on the freeway, it was an excellent choice. The only negative was the drink machine was broken, but there is a very nice store right next door that was clean, and well furnished. Also, the bed was a bit firm, not crazy about feeling the springs, a thick mattress pad would help. But I did sleep very well. For the price, this was a great choice for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This is an excellent ECONOMY CLASS hotel. The room was bright and clean, furnished nicely with a desk and office type chair, free Wi-Fi, good TV with an amazing number of channels, and enough on the free breakfast to get you going for the day. There is no restaurant, no pool, and not a lot of other amenities. But for an overnight stay close to downtown, with easy off and on the freeway, it was an excellent choice. The only negative was the drink machine was broken, but there is a very nice store right next door that was clean, and well furnished. Also, the bed was a bit firm, not crazy about feeling the springs, a thick mattress pad would help. But I did sleep very well. For the price, this was a great choice for me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r225165442-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1455,42 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r203032920-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203032920</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r201578078-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201578078</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Ghetto Slum Hotel</t>
+  </si>
+  <si>
+    <t>A group of us travelling happened upon this Howard Johnson after leaving the Houston airport.  It was late and HOJO was a recognizable brand name.  The outside of the hotel was inviting and the grounds were clean.  The rate was $93 plus tax. I stayed in better Super Eight's and Motel Six for half that rate.  We were put into the first room which is very small and outdated.  The TV did not work and the carpets were filty.  I requested a non-smoking room, but this room reeked of a combination of smoke and mold/mildew.  We requested another room.  Boy, was that a bad idea.  It was worse than the first.  It smelled of smoke, mold/mildew and urine.  The were cigarette burns in the conforters and sheets.  There was also either blood or feces behind the door on the wall and on the bathroom vanity.  By this time it was nearing midnight...we thought about leaving, but were travelling with two small children and did not feel like trying to find something else at that time of night.  At about 3:30 am there was also someone being chased and screaming for someone to call 911 for 10 to 15 minutes.  I know that this has nothing to do with the hotel, but possible about the trpe of people that frequent it.MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>A group of us travelling happened upon this Howard Johnson after leaving the Houston airport.  It was late and HOJO was a recognizable brand name.  The outside of the hotel was inviting and the grounds were clean.  The rate was $93 plus tax. I stayed in better Super Eight's and Motel Six for half that rate.  We were put into the first room which is very small and outdated.  The TV did not work and the carpets were filty.  I requested a non-smoking room, but this room reeked of a combination of smoke and mold/mildew.  We requested another room.  Boy, was that a bad idea.  It was worse than the first.  It smelled of smoke, mold/mildew and urine.  The were cigarette burns in the conforters and sheets.  There was also either blood or feces behind the door on the wall and on the bathroom vanity.  By this time it was nearing midnight...we thought about leaving, but were travelling with two small children and did not feel like trying to find something else at that time of night.  At about 3:30 am there was also someone being chased and screaming for someone to call 911 for 10 to 15 minutes.  I know that this has nothing to do with the hotel, but possible about the trpe of people that frequent it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r200633217-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1518,6 @@
     <t>04/05/2014</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded April 7, 2014</t>
   </si>
   <si>
@@ -1029,6 +1533,45 @@
     <t>04/02/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r199041355-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199041355</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>It was a very nice stay and I would stay there again.  Conveniently accessible to everywhere I was visiting in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r197708212-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197708212</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Good price for the location</t>
+  </si>
+  <si>
+    <t>Good location for downtown events, easy to find. The staff are helpful, very sweet and kind. Has all the basic amenities including fridge, coffee maker, iron, hair dryer. Fills up fast, so make reservations.  Great coffee with breakfast. I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Good location for downtown events, easy to find. The staff are helpful, very sweet and kind. Has all the basic amenities including fridge, coffee maker, iron, hair dryer. Fills up fast, so make reservations.  Great coffee with breakfast. I'll be back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r196331320-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1044,12 +1587,6 @@
     <t>If you need to be close to downtown but don't want to be in downtown and pay the downtown prices and you don't care about anything but a clean bed, this would be ok. This place is right on the freeway so there is extreme freeway noise although not too bad in the room.  The area does not feel very safe--there is a bulletproof window by the desk clerk if that is a clue. The "breakfast" is a joke in a space maybe 8' x 8' with no seating--it has toast and waffles and cereal but it really feels cheap. The staff other than the desk clerk were very polite and helpful.  The free wi fi was very good.  Otherwise, definitely a "no frills" hotel.MoreShow less</t>
   </si>
   <si>
-    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded March 18, 2014</t>
-  </si>
-  <si>
-    <t>Responded March 18, 2014</t>
-  </si>
-  <si>
     <t>If you need to be close to downtown but don't want to be in downtown and pay the downtown prices and you don't care about anything but a clean bed, this would be ok. This place is right on the freeway so there is extreme freeway noise although not too bad in the room.  The area does not feel very safe--there is a bulletproof window by the desk clerk if that is a clue. The "breakfast" is a joke in a space maybe 8' x 8' with no seating--it has toast and waffles and cereal but it really feels cheap. The staff other than the desk clerk were very polite and helpful.  The free wi fi was very good.  Otherwise, definitely a "no frills" hotel.More</t>
   </si>
   <si>
@@ -1095,6 +1632,51 @@
     <t>A long list.  Non smoking room reeked of smoke.  refrigerator was full of leftovers, pizza,  stale beer and other stuff.  TV did not work, No signal.  No as in 0 hot water. An ice bag covered the smoke detector, I removed it in case this fire trap went up in flames while I slept.  the next morning a truck had parked behind my car and completely  blocked it.  The manager could not find the owner because they don't take car information from guests. I threatened to set off my car alarm till someone moved.  they went to each room to find the owner.   They charged me more than quoted -$93.00 for this Hell Hole.  I was in no mood to argue once I could get my car out.    The only good thing was it was otherwise fairly clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r192459535-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192459535</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Cheap &amp; clean transit</t>
+  </si>
+  <si>
+    <t>Had to stay after a flight delay. At $60 i wasn't expecting a lot. A motel style inn next to a truck-stop. 10 minute drive to airport and they have a shuttle. Friendly and efficient staff. Had coffee and some fruit ready for my 5am lift to airport. Room was basic, but spacious, neat and clean. Basic, in-room dinner and breakfast menu available and gas station convenience store next door, with traditional greasy fare, if required. Not much else near by.Pretty quiet, but u might get some truck noise starting around 4am as rigs head out from next door, but not too bad. As a traveller, I'm sure you'll have essential ear plugs. Good and safe for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Had to stay after a flight delay. At $60 i wasn't expecting a lot. A motel style inn next to a truck-stop. 10 minute drive to airport and they have a shuttle. Friendly and efficient staff. Had coffee and some fruit ready for my 5am lift to airport. Room was basic, but spacious, neat and clean. Basic, in-room dinner and breakfast menu available and gas station convenience store next door, with traditional greasy fare, if required. Not much else near by.Pretty quiet, but u might get some truck noise starting around 4am as rigs head out from next door, but not too bad. As a traveller, I'm sure you'll have essential ear plugs. Good and safe for the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r190652696-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190652696</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good service, closest the downtown. the rooms are clean and very comfortable.great for travel business, but only for sleep, not for dinner, or other mathers.they have security place for amazon shippingMoreShow less</t>
+  </si>
+  <si>
+    <t>good service, closest the downtown. the rooms are clean and very comfortable.great for travel business, but only for sleep, not for dinner, or other mathers.they have security place for amazon shippingMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r189207475-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1149,18 +1731,54 @@
     <t>I only chose this hotel because I did not want to pay 250 dollars for a downtown hotel room for one night. The location is about 5 miles away from any downtown attractions. We went to the Toyota center to watch an attraction. It was very easy to get to the hotel and back. The location is under construction so there are a bunch of bumps in the road. The room was pretty spacious, with a microwave and fridge. I'll probably stay here again if I can't find anything cheaper the next time. The staff were nice, granted, I never had to speak to them unless to check in or out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r181206358-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181206358</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Howard Johnson Inn. 2221 Greens Road, Houston, Tx. 77032</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel (on Greens Road) and it was a total disaster. The service was terrible, our room was dirty, the TV didn't work, only one light was working. The restroom was dirty and the door didn't close, it seems somebody kicked it and and was falling down. After just two hours there we manage to make a reservation at another hotel and just left. Never visit such property, it really sucks!MoreShow less</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel (on Greens Road) and it was a total disaster. The service was terrible, our room was dirty, the TV didn't work, only one light was working. The restroom was dirty and the door didn't close, it seems somebody kicked it and and was falling down. After just two hours there we manage to make a reservation at another hotel and just left. Never visit such property, it really sucks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r175160567-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175160567</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>BEE A, Manager at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r175133039-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
     <t>175133039</t>
   </si>
   <si>
-    <t>09/01/2013</t>
-  </si>
-  <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r173271197-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1803,30 @@
     <t>08/08/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r158469691-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158469691</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r158319949-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158319949</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r157558112-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1836,6 @@
     <t>04/12/2013</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r157265785-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1869,30 @@
     <t>I stayed at this same hotel a few years ago and wasn't too impressed. There was nothing extremely horrible about it back then, but it just didn't feel like a pleasant stay. Chose to stay here again because of the convenient location (not far from downtown) and what a change this hotel has made. I recently stayed here again earlier this month and I cannot say enough good things about this hotel. My family and I were surprised and delighted. First off, the entire hotel looks different. The new paint and style of the rooms definitely upped the look of it. The rooms are great. Comfortable beds in big rooms. We rented two rooms for five people (two adults and three children) and the front desk lady was kind enough to give us two rooms that were right next to each other. Yeah it's not that big of a deal, but just the fact that we didn't even ask for it and that the hotel looked pretty booked made it a nice gesture to us. The breakfast definitely upgraded from the last time. Sausage, eggs, waffles, muffins, cereal, coffee, etc. Lobby is small so we happily enjoyed our breakfast in our rooms. My family and I really enjoyed our stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r156938204-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156938204</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r156450922-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156450922</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Clean &amp; Well Maintained Rooms</t>
+  </si>
+  <si>
+    <t>Very happy. The room was perfectly adequate, and I feel I got good value. Addressing other reviews - my TV worked fine as did the Internet; the room was spotlessly clean, and there were no strange smells. The only small complaint I have is there was no way to plug the tub in order to take a bath (we were in room 109) - we took a shower instead - no big deal. We will stay here again next time we are in Houston for sure.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r150686734-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1941,51 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r141674080-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141674080</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>The cable in my room had been severed, rendering my tv useless.  I asked that it be repaired.  While Alex did what he could the maintenance staff had left for the day and he didn't have a replacement cable.  I was told that maintenance would have it repaired the nex day.  I was not.  Alex offered to 'borrow' one from another room or move me to another room.  I felt like moving was an inconvenience and didn't move.  I checked out the next day.  Alex was left at the motel by himself and had no options available to him.  He was informative and offered solutions but limited in his ability to assist.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2012</t>
+  </si>
+  <si>
+    <t>The cable in my room had been severed, rendering my tv useless.  I asked that it be repaired.  While Alex did what he could the maintenance staff had left for the day and he didn't have a replacement cable.  I was told that maintenance would have it repaired the nex day.  I was not.  Alex offered to 'borrow' one from another room or move me to another room.  I felt like moving was an inconvenience and didn't move.  I checked out the next day.  Alex was left at the motel by himself and had no options available to him.  He was informative and offered solutions but limited in his ability to assist.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r141440318-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141440318</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Bad location</t>
+  </si>
+  <si>
+    <t>There's a reason why the rate is so good at only 9 minutes to downtown Houston, and it's because it''s right by the freeway, and in the back of a gas station, in a rather sketchy area.  I was also woken up at 6am by beeping sound outside--sounded like a construction noise, like a big tractor backing up, etc.  Rooms are also stuffy and not well ventilated.  Windows have no blinds, so I had the curtain closed the whole time, which made the room so dark, even wiht every lamp in the room on, because there was no ceiling lamp. The front desk staff was great, however.  Stay here if you just need a place to crash and don't want anything else.  MoreShow less</t>
+  </si>
+  <si>
+    <t>There's a reason why the rate is so good at only 9 minutes to downtown Houston, and it's because it''s right by the freeway, and in the back of a gas station, in a rather sketchy area.  I was also woken up at 6am by beeping sound outside--sounded like a construction noise, like a big tractor backing up, etc.  Rooms are also stuffy and not well ventilated.  Windows have no blinds, so I had the curtain closed the whole time, which made the room so dark, even wiht every lamp in the room on, because there was no ceiling lamp. The front desk staff was great, however.  Stay here if you just need a place to crash and don't want anything else.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r141279247-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1293,15 +2001,6 @@
     <t>the air conditioner groaned continually at a level that prevented sleep.We asked for a new room, but the alternative room offered smelled bad.It is obvious that remodeling is occurring, but it should include fundamental changes like replacing failed utilities.MoreShow less</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>hojohoustontx, Webmaster at Howard Johnson by Wyndham Houston Downtown, responded to this reviewResponded October 6, 2012</t>
-  </si>
-  <si>
-    <t>Responded October 6, 2012</t>
-  </si>
-  <si>
     <t>the air conditioner groaned continually at a level that prevented sleep.We asked for a new room, but the alternative room offered smelled bad.It is obvious that remodeling is occurring, but it should include fundamental changes like replacing failed utilities.More</t>
   </si>
   <si>
@@ -1356,6 +2055,39 @@
     <t>The room appeared to have been recently painted and was very clean. It was missing one light bulb but that was taken care of promptly. Parking would be aproblem if all the rooms were occupied but we had no problem. Breakfast didn't match what we have found at Best Westerns but it was adequate. Staff was friendly and responded to every request promptly. Major problem was the construction going on the access road and that's not the hotel's fault.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r131076590-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131076590</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>NEW MANGEMENT AND RENOVATED</t>
+  </si>
+  <si>
+    <t>This place is excellent. The only thing bad is the city/state construction on I10 in front of the hotel. The rooms all very clean and well furnished. I always try to stay here when i'm in Houston. I recommend it to everyone. No pool or restaurant on premises, but who cares.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r130417712-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130417712</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean and affordable</t>
+  </si>
+  <si>
+    <t>This motel is having to deal with major feeder expansion by the city of Houston.  It is a small facility which is close to downtown and the Galleria area.  It has been remodeled with new furnishings, etc.  Each time I return I see different improvements.  They have a full complimentary breakfast. ( Pastries, etc. and Hot foods )  I have stayed at the facility three times in the last six months.  I would recommend this facility to any traveler.  No frills, ( pool, etc. ) but it meets my needs!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r82920638-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +2152,58 @@
   </si>
   <si>
     <t>I recommend not staying at this hotel...we got there 20 minutes before check in and the manager placed us on the second floor facing a wall in the corner.  There were only 2 cars and we ask to change room; he was rude and sarcastic stating that we are lucky we had a room and would not give our money back even though we were unsatified.  Bad customer service!  when we went to the hotel room there was a horrible ordor!  We called corporate and got our money back...if you looking for a hotel I recommended staying at the Comfort Inn down the block. Be recommended that this is not the safest looking area in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r35612875-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35612875</t>
+  </si>
+  <si>
+    <t>07/23/2009</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I have ever had!!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel stay my family and I have ever had!!  
+The air conditioning in the room was off when we arrived.  We had made the reservation well in advance and had even already paid for it via our credit card.  The hotel personnel KNEW we would be arriving, yet did not turn on the air conditioning.  The temperature inside the room was the same temperature as outside (90 degrees or hotter).  Instead of being able to relax in our hotel room after an 8 hour drive, we had to turn the air conditioning on and leave the room for 2 hours.  We did not get good rest the first night as the temperature was still uncomfortable. 
+The smoke alarm beeped loudly at regular intervals due to a low battery.  My husband had to go to the front desk in the middle of the second night of our stay and ask for some help when the alarm began going off.  He was told nothing could be done until the next day when maintenance was available.  When my husband went down to the front desk a second time due to the annoying sound of the alarm, he was given a battery by the manager to install into the smoke alarm himself.
+The room was not clean.  My husband washed the mirror so it was usable.  
+The shower had almost no water pressure.
+The breakfast food was old, stale, and...This was the worst hotel stay my family and I have ever had!!  The air conditioning in the room was off when we arrived.  We had made the reservation well in advance and had even already paid for it via our credit card.  The hotel personnel KNEW we would be arriving, yet did not turn on the air conditioning.  The temperature inside the room was the same temperature as outside (90 degrees or hotter).  Instead of being able to relax in our hotel room after an 8 hour drive, we had to turn the air conditioning on and leave the room for 2 hours.  We did not get good rest the first night as the temperature was still uncomfortable. The smoke alarm beeped loudly at regular intervals due to a low battery.  My husband had to go to the front desk in the middle of the second night of our stay and ask for some help when the alarm began going off.  He was told nothing could be done until the next day when maintenance was available.  When my husband went down to the front desk a second time due to the annoying sound of the alarm, he was given a battery by the manager to install into the smoke alarm himself.The room was not clean.  My husband washed the mirror so it was usable.  The shower had almost no water pressure.The breakfast food was old, stale, and very minimal.  The smell in the lobby was awful.  The manager was unfriendly.  We had set the TV to a news station one of the mornings we were trying to eat a bowl of stale cereal.  The manager came in moments later, turned the channel to golf, and was rude when we asked if we could watch the news.  Another situation involved a request for a receipt upon check out.  He refused to give us one.  A third encounter with this hotel management was the worst I have ever had with a business!  I called the hotel a few days after our stay to again request an itemized receipt as it is required by the school district I traveled under for reimbursement.  The man I talked with was uncooperative and rude, insisting that the print out from Price-line should be sufficient.  After several minutes of me trying to explain the reasoning behind my request, he abruptly put me on hold.  I hung up after several minutes thinking he was not returning to the phone.  I received a call back from someone who did not even address himself saying he did not appreciate me screaming at his employee on the phone, all the while he was screaming into the phone.  I WAS IN SHOCK to say the least!!He would not even address himself and told me I did not need to know his name.  He screamed and I mean screamed over the phone about how I did not need an itemized receipt and then hung up on me.  I called the hotel a little later to inform the manager that I would be filing a complaint with the Houston Better Business Bureau.We only endured our stay because we had no choice.  It had already been charged to our credit card and paid for a month prior to our stay.  It was fairly close to downtown but inconvenient to get to from the highway.  The immediate neighborhood looked quite run down.  I would never recommend to anyone to stay at this hotel, ever!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>This was the worst hotel stay my family and I have ever had!!  
+The air conditioning in the room was off when we arrived.  We had made the reservation well in advance and had even already paid for it via our credit card.  The hotel personnel KNEW we would be arriving, yet did not turn on the air conditioning.  The temperature inside the room was the same temperature as outside (90 degrees or hotter).  Instead of being able to relax in our hotel room after an 8 hour drive, we had to turn the air conditioning on and leave the room for 2 hours.  We did not get good rest the first night as the temperature was still uncomfortable. 
+The smoke alarm beeped loudly at regular intervals due to a low battery.  My husband had to go to the front desk in the middle of the second night of our stay and ask for some help when the alarm began going off.  He was told nothing could be done until the next day when maintenance was available.  When my husband went down to the front desk a second time due to the annoying sound of the alarm, he was given a battery by the manager to install into the smoke alarm himself.
+The room was not clean.  My husband washed the mirror so it was usable.  
+The shower had almost no water pressure.
+The breakfast food was old, stale, and...This was the worst hotel stay my family and I have ever had!!  The air conditioning in the room was off when we arrived.  We had made the reservation well in advance and had even already paid for it via our credit card.  The hotel personnel KNEW we would be arriving, yet did not turn on the air conditioning.  The temperature inside the room was the same temperature as outside (90 degrees or hotter).  Instead of being able to relax in our hotel room after an 8 hour drive, we had to turn the air conditioning on and leave the room for 2 hours.  We did not get good rest the first night as the temperature was still uncomfortable. The smoke alarm beeped loudly at regular intervals due to a low battery.  My husband had to go to the front desk in the middle of the second night of our stay and ask for some help when the alarm began going off.  He was told nothing could be done until the next day when maintenance was available.  When my husband went down to the front desk a second time due to the annoying sound of the alarm, he was given a battery by the manager to install into the smoke alarm himself.The room was not clean.  My husband washed the mirror so it was usable.  The shower had almost no water pressure.The breakfast food was old, stale, and very minimal.  The smell in the lobby was awful.  The manager was unfriendly.  We had set the TV to a news station one of the mornings we were trying to eat a bowl of stale cereal.  The manager came in moments later, turned the channel to golf, and was rude when we asked if we could watch the news.  Another situation involved a request for a receipt upon check out.  He refused to give us one.  A third encounter with this hotel management was the worst I have ever had with a business!  I called the hotel a few days after our stay to again request an itemized receipt as it is required by the school district I traveled under for reimbursement.  The man I talked with was uncooperative and rude, insisting that the print out from Price-line should be sufficient.  After several minutes of me trying to explain the reasoning behind my request, he abruptly put me on hold.  I hung up after several minutes thinking he was not returning to the phone.  I received a call back from someone who did not even address himself saying he did not appreciate me screaming at his employee on the phone, all the while he was screaming into the phone.  I WAS IN SHOCK to say the least!!He would not even address himself and told me I did not need to know his name.  He screamed and I mean screamed over the phone about how I did not need an itemized receipt and then hung up on me.  I called the hotel a little later to inform the manager that I would be filing a complaint with the Houston Better Business Bureau.We only endured our stay because we had no choice.  It had already been charged to our credit card and paid for a month prior to our stay.  It was fairly close to downtown but inconvenient to get to from the highway.  The immediate neighborhood looked quite run down.  I would never recommend to anyone to stay at this hotel, ever!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r29871821-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29871821</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>Close to highway, so you can get away from it as quickly as you can</t>
+  </si>
+  <si>
+    <t>Probably the worst hotel I have stayed in Houston area.  Old AC units sitting on corridor for days not being cleaned up.  Tiny lobby area with free breakfast, so all hotel guest can share the sole table with 4 seats.  The lobby area stinks.On the bright side, it's close to Katy Freeway (I-10), so you can leave the hotel as quickly as you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Probably the worst hotel I have stayed in Houston area.  Old AC units sitting on corridor for days not being cleaned up.  Tiny lobby area with free breakfast, so all hotel guest can share the sole table with 4 seats.  The lobby area stinks.On the bright side, it's close to Katy Freeway (I-10), so you can leave the hotel as quickly as you can.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r25717550-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
@@ -1489,6 +2273,45 @@
 We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".
 A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. 
 The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there...Me, my wife, my daughter and my grandson all decided that we needed a little weekend retreat so on the10th we booked in advance our stay here for the following week, the weekend of the 16th.We arrive at the hotel at 4pm the 16th. We tell the front desk man, Rick I believe his name was. That we had reservations, he pulled it up on the computer and they had us booked at Feb. 16th, not January. So we tell them that we spoke to Joe, who claimed he had everything right and even went over our reservation for us. He then said "Sorry there is nothing we can do".A manager came from the back and it turns out it was Joe, he told Rick that he screwed up on the information but we were staying this weekend. So we got our room key and made our way to the room. We opened the door and went in, I looked at the floor and there was gum on it, there was old cigarettes on the bed stand, a pack of new cigarettes sitting on the tank of the toilet and the beds had yellow stains on them, don't even want to know what it was. The neighbor hood was horrible. The whole time we were there, we worried about our car because there were these shady looking young men walking around the hotel grounds. While we were there a car did get stolen. At night it wasn't any better, gunshots, yelling and some type of sound I can't even describe were always being heard at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r21107936-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21107936</t>
+  </si>
+  <si>
+    <t>10/22/2008</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>The hotels easy access didn't make up for the bad neighborhood. There were shady people hanging out, I was unsure if they were employees  or guests, but they made me nervous. There was no parking when we arrived around midnight and the room itself was awful. Dingy sheets and uncomfortable mattresses made it impossible for me to sleep. There were also dead roashes IN our room and several scattered throughout the grounds. Expected a whole lot more for the price we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotels easy access didn't make up for the bad neighborhood. There were shady people hanging out, I was unsure if they were employees  or guests, but they made me nervous. There was no parking when we arrived around midnight and the room itself was awful. Dingy sheets and uncomfortable mattresses made it impossible for me to sleep. There were also dead roashes IN our room and several scattered throughout the grounds. Expected a whole lot more for the price we paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r21038434-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21038434</t>
+  </si>
+  <si>
+    <t>10/20/2008</t>
+  </si>
+  <si>
+    <t>Belligerence from the Office!</t>
+  </si>
+  <si>
+    <t>When I asked to have a beeping smoke alarm fixed, the "manager" told me he would see to it when he wasn't busy. Then he resumed reading his book! When he got around to coming to my room, he berated me for not taking care of the problem earlier in the day! "It's not houskeeping's job to take care of this, it's the customer's. You are the customer!" I did not want to talk with the "manager" after this experience, I was afraid of his temper. He was intimidating and belligerent. One of my friends called the office for information; he called her stupid and hung up on her.  Amenities: 1) The "free internet" did not work, but I couldn't report it because the 2) office would not answer the phone. 3) Don't even think about asking for a wake up call. 4)When I checked out of the hotel at 7AM, there was no one in the office. I thought there was supposed to be "continental breakfast."MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>When I asked to have a beeping smoke alarm fixed, the "manager" told me he would see to it when he wasn't busy. Then he resumed reading his book! When he got around to coming to my room, he berated me for not taking care of the problem earlier in the day! "It's not houskeeping's job to take care of this, it's the customer's. You are the customer!" I did not want to talk with the "manager" after this experience, I was afraid of his temper. He was intimidating and belligerent. One of my friends called the office for information; he called her stupid and hung up on her.  Amenities: 1) The "free internet" did not work, but I couldn't report it because the 2) office would not answer the phone. 3) Don't even think about asking for a wake up call. 4)When I checked out of the hotel at 7AM, there was no one in the office. I thought there was supposed to be "continental breakfast."More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107903-r5224894-Howard_Johnson_by_Wyndham_Houston_Downtown-Houston_Texas.html</t>
@@ -2085,12 +2908,22 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2131,27 +2964,29 @@
       <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s"/>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -2170,7 +3005,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2186,7 +3021,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2195,40 +3030,32 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -2239,7 +3066,7 @@
         <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2255,7 +3082,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2264,35 +3091,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -2302,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2324,43 +3151,45 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>4</v>
@@ -2369,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +3220,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2400,43 +3229,51 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
         <v>84</v>
       </c>
+      <c r="K7" t="s"/>
       <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -2452,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2461,51 +3298,51 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2521,7 +3358,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2530,51 +3367,51 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2590,60 +3427,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
       <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2659,60 +3494,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>104</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>105</v>
       </c>
-      <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="X11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" t="s">
         <v>108</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2744,7 +3571,7 @@
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -2753,23 +3580,23 @@
         <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2778,10 +3605,10 @@
         <v>113</v>
       </c>
       <c r="X12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -2797,60 +3624,60 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>116</v>
-      </c>
-      <c r="J13" t="s">
-        <v>117</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="X13" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2880,25 +3707,27 @@
       <c r="J14" t="s">
         <v>120</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
         <v>121</v>
       </c>
-      <c r="L14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2911,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="X14" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -2933,52 +3762,60 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>124</v>
-      </c>
-      <c r="X15" t="s">
-        <v>125</v>
-      </c>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2994,7 +3831,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3003,32 +3840,32 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -3041,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="X16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Y16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3063,7 +3900,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3072,53 +3909,51 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="X17" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3134,7 +3969,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3143,49 +3978,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -3201,7 +4034,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3210,25 +4043,23 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3237,26 +4068,26 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -3272,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3281,25 +4112,23 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>166</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3311,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3321,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="X20" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -3343,7 +4172,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3352,53 +4181,51 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" t="s">
-        <v>175</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="X21" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3414,7 +4241,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3423,31 +4250,29 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" t="s">
-        <v>183</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>4</v>
@@ -3463,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="X22" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -3485,7 +4310,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3494,44 +4319,52 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="W23" t="s">
+        <v>153</v>
+      </c>
+      <c r="X23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3546,7 +4379,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3555,30 +4388,28 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>168</v>
+      </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
@@ -3593,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="X24" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -3615,7 +4446,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3624,53 +4455,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
@@ -3686,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3695,30 +4516,36 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
-      </c>
-      <c r="K26" t="s">
-        <v>207</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>3</v>
@@ -3727,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="X26" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -3749,7 +4576,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3758,53 +4585,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="X27" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
@@ -3820,7 +4641,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3829,28 +4650,26 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" t="s">
-        <v>223</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
@@ -3859,23 +4678,23 @@
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="X28" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -3891,7 +4710,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3900,26 +4719,28 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
-      </c>
-      <c r="K29" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>201</v>
+      </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
@@ -3938,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="X29" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="Y29" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
@@ -3960,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3969,37 +4790,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4009,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="X30" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -4031,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4040,29 +4857,35 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -4074,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
@@ -4096,7 +4919,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4105,51 +4928,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
-      </c>
-      <c r="K32" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
       </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="X32" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Y32" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
@@ -4165,7 +4986,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4174,20 +4995,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
-      </c>
-      <c r="K33" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -4212,13 +5035,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="X33" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Y33" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
@@ -4234,7 +5057,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4243,53 +5066,53 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
@@ -4305,7 +5128,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4314,51 +5137,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
-      </c>
-      <c r="K35" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
       <c r="L35" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="X35" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -4374,7 +5199,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4383,22 +5208,22 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
@@ -4407,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
@@ -4417,19 +5242,19 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="X36" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Y36" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
@@ -4445,7 +5270,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4454,53 +5279,53 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="X37" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="Y37" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -4516,7 +5341,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4525,44 +5350,54 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
-        <v>294</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
+      <c r="W38" t="s">
+        <v>272</v>
+      </c>
+      <c r="X38" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4577,7 +5412,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4586,54 +5421,44 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="J39" t="s">
-        <v>298</v>
-      </c>
-      <c r="K39" t="s">
-        <v>299</v>
-      </c>
-      <c r="L39" t="s">
-        <v>300</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>263</v>
-      </c>
-      <c r="X39" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>302</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4648,7 +5473,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4657,44 +5482,52 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+      <c r="L40" t="s">
+        <v>74</v>
+      </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
+      <c r="W40" t="s">
+        <v>272</v>
+      </c>
+      <c r="X40" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4709,7 +5542,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4718,24 +5551,28 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="K41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s">
+        <v>286</v>
+      </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>3</v>
@@ -4744,18 +5581,24 @@
         <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
+      <c r="W41" t="s">
+        <v>287</v>
+      </c>
+      <c r="X41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4770,7 +5613,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4779,25 +5622,23 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
-      </c>
-      <c r="K42" t="s">
-        <v>314</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4818,10 +5659,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>272</v>
+      </c>
+      <c r="X42" t="s">
+        <v>273</v>
+      </c>
       <c r="Y42" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -4837,7 +5682,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4846,49 +5691,45 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>287</v>
+      </c>
+      <c r="X43" t="s">
+        <v>288</v>
+      </c>
       <c r="Y43" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
@@ -4904,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4913,49 +5754,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="J44" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>303</v>
+      </c>
+      <c r="X44" t="s">
+        <v>304</v>
+      </c>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45">
@@ -4971,7 +5808,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4980,51 +5817,53 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>309</v>
+      </c>
       <c r="L45" t="s">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="X45" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="Y45" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
@@ -5040,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5049,44 +5888,54 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>336</v>
-      </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+        <v>316</v>
+      </c>
+      <c r="K46" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s">
+        <v>318</v>
+      </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="W46" t="s">
+        <v>320</v>
+      </c>
+      <c r="X46" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5101,7 +5950,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5110,53 +5959,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="X47" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="Y47" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48">
@@ -5172,7 +6021,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5181,37 +6030,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5220,10 +6067,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>336</v>
+      </c>
+      <c r="X48" t="s">
+        <v>337</v>
+      </c>
       <c r="Y48" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49">
@@ -5239,7 +6090,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5248,53 +6099,51 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>353</v>
-      </c>
-      <c r="K49" t="s">
-        <v>354</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="X49" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="Y49" t="s">
-        <v>358</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -5310,7 +6159,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5319,49 +6168,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="J50" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="X50" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Y50" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
@@ -5377,7 +6230,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5386,44 +6239,48 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J51" t="s">
-        <v>369</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="W51" t="s">
+        <v>360</v>
+      </c>
+      <c r="X51" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5438,7 +6295,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5447,49 +6304,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J52" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>368</v>
+      </c>
+      <c r="X52" t="s">
+        <v>369</v>
+      </c>
       <c r="Y52" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
@@ -5505,7 +6362,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5514,21 +6371,23 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J53" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5540,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5549,9 +6408,15 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="W53" t="s">
+        <v>375</v>
+      </c>
+      <c r="X53" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5566,7 +6431,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5575,49 +6440,51 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J54" t="s">
-        <v>383</v>
-      </c>
-      <c r="K54" t="s">
-        <v>384</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>380</v>
+      </c>
+      <c r="X54" t="s">
+        <v>381</v>
+      </c>
       <c r="Y54" t="s">
-        <v>385</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -5633,7 +6500,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5642,44 +6509,52 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J55" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+      <c r="L55" t="s">
+        <v>74</v>
+      </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="W55" t="s">
+        <v>386</v>
+      </c>
+      <c r="X55" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5694,42 +6569,46 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
         <v>389</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>390</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>391</v>
       </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5738,9 +6617,15 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
+      <c r="W56" t="s">
+        <v>394</v>
+      </c>
+      <c r="X56" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5755,50 +6640,50 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57" t="s">
+        <v>399</v>
+      </c>
+      <c r="K57" t="s">
+        <v>400</v>
+      </c>
+      <c r="L57" t="s">
+        <v>401</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
         <v>393</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>394</v>
-      </c>
-      <c r="J57" t="s">
-        <v>395</v>
-      </c>
-      <c r="K57" t="s">
-        <v>396</v>
-      </c>
-      <c r="L57" t="s">
-        <v>397</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>392</v>
-      </c>
       <c r="O57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
         <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5806,7 +6691,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58">
@@ -5822,7 +6707,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5831,49 +6716,51 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J58" t="s">
-        <v>400</v>
-      </c>
-      <c r="K58" t="s">
-        <v>401</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>406</v>
+      </c>
+      <c r="X58" t="s">
+        <v>407</v>
+      </c>
       <c r="Y58" t="s">
-        <v>403</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -5889,7 +6776,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5898,51 +6785,51 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J59" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
         <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="X59" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Y59" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -5958,36 +6845,40 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>414</v>
+      </c>
+      <c r="J60" t="s">
         <v>410</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
-        <v>411</v>
-      </c>
-      <c r="J60" t="s">
-        <v>412</v>
-      </c>
-      <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
+      <c r="K60" t="s">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
         <v>4</v>
@@ -5997,14 +6888,20 @@
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
+      <c r="W60" t="s">
+        <v>411</v>
+      </c>
+      <c r="X60" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6019,7 +6916,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6028,34 +6925,34 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K61" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O61" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
         <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -6067,10 +6964,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>411</v>
+      </c>
+      <c r="X61" t="s">
+        <v>412</v>
+      </c>
       <c r="Y61" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62">
@@ -6086,7 +6987,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6095,53 +6996,53 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="J62" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K62" t="s">
+        <v>428</v>
+      </c>
+      <c r="L62" t="s">
+        <v>429</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
         <v>423</v>
       </c>
-      <c r="L62" t="s">
-        <v>424</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2</v>
-      </c>
-      <c r="N62" t="s">
-        <v>425</v>
-      </c>
       <c r="O62" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="X62" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="Y62" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63">
@@ -6157,7 +7058,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6166,53 +7067,53 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J63" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K63" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L63" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="X63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64">
@@ -6228,7 +7129,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6237,28 +7138,24 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J64" t="s">
-        <v>440</v>
-      </c>
-      <c r="K64" t="s">
         <v>441</v>
       </c>
-      <c r="L64" t="s">
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
         <v>442</v>
       </c>
-      <c r="M64" t="n">
-        <v>3</v>
-      </c>
-      <c r="N64" t="s">
-        <v>434</v>
-      </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q64" t="n">
         <v>4</v>
@@ -6267,24 +7164,18 @@
         <v>3</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>443</v>
-      </c>
-      <c r="X64" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>445</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6299,48 +7190,62 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
+        <v>443</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>444</v>
+      </c>
+      <c r="J65" t="s">
+        <v>445</v>
+      </c>
+      <c r="K65" t="s">
         <v>446</v>
       </c>
-      <c r="G65" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>447</v>
       </c>
-      <c r="J65" t="s">
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
         <v>448</v>
       </c>
-      <c r="K65" t="s">
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>386</v>
+      </c>
+      <c r="X65" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y65" t="s">
         <v>449</v>
-      </c>
-      <c r="L65" t="s">
-        <v>450</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3</v>
-      </c>
-      <c r="N65" t="s">
-        <v>451</v>
-      </c>
-      <c r="O65" t="s">
-        <v>87</v>
-      </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
-      <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="66">
@@ -6356,34 +7261,30 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>450</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>451</v>
+      </c>
+      <c r="J66" t="s">
         <v>452</v>
       </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
         <v>453</v>
       </c>
-      <c r="J66" t="s">
-        <v>454</v>
-      </c>
-      <c r="K66" t="s">
-        <v>455</v>
-      </c>
-      <c r="L66" t="s">
-        <v>456</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>457</v>
-      </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6392,27 +7293,21 @@
         <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>458</v>
-      </c>
-      <c r="X66" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>460</v>
-      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6427,7 +7322,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6436,54 +7331,44 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J67" t="s">
-        <v>463</v>
-      </c>
-      <c r="K67" t="s">
-        <v>464</v>
-      </c>
-      <c r="L67" t="s">
-        <v>465</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="O67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R67" t="n">
         <v>4</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>458</v>
-      </c>
-      <c r="X67" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>467</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6498,7 +7383,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6507,41 +7392,35 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J68" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
       <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>4</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6549,7 +7428,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69">
@@ -6565,7 +7444,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6574,37 +7453,33 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="J69" t="s">
-        <v>477</v>
-      </c>
-      <c r="K69" t="s">
-        <v>478</v>
-      </c>
-      <c r="L69" t="s">
-        <v>479</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O69" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
@@ -6613,15 +7488,9 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s">
-        <v>458</v>
-      </c>
-      <c r="X69" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>481</v>
-      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6636,7 +7505,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6645,53 +7514,49 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="J70" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="K70" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="L70" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R70" t="n">
         <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>458</v>
-      </c>
-      <c r="X70" t="s">
-        <v>459</v>
-      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71">
@@ -6707,7 +7572,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6716,47 +7581,49 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="J71" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="K71" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s">
+        <v>81</v>
+      </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>458</v>
-      </c>
-      <c r="X71" t="s">
-        <v>459</v>
-      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72">
@@ -6772,7 +7639,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6781,48 +7648,44 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="J72" t="s">
-        <v>497</v>
-      </c>
-      <c r="K72" t="s">
-        <v>498</v>
-      </c>
-      <c r="L72" t="s">
-        <v>499</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
       <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="s"/>
-      <c r="O72" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>482</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R72" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
-        <v>458</v>
-      </c>
-      <c r="X72" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>500</v>
-      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6837,7 +7700,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6846,39 +7709,3219 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="J73" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="K73" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
+      <c r="N73" t="s">
+        <v>482</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
       <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="X73" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="Y73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>491</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>492</v>
+      </c>
+      <c r="J74" t="s">
+        <v>493</v>
+      </c>
+      <c r="K74" t="s">
+        <v>494</v>
+      </c>
+      <c r="L74" t="s">
+        <v>495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>496</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>497</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>498</v>
+      </c>
+      <c r="J75" t="s">
+        <v>499</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>74</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>482</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>500</v>
+      </c>
+      <c r="X75" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>502</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>503</v>
+      </c>
+      <c r="J76" t="s">
+        <v>504</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>496</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
         <v>506</v>
+      </c>
+      <c r="J77" t="s">
+        <v>507</v>
+      </c>
+      <c r="K77" t="s">
+        <v>508</v>
+      </c>
+      <c r="L77" t="s">
+        <v>509</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>496</v>
+      </c>
+      <c r="O77" t="s">
+        <v>121</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>496</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>515</v>
+      </c>
+      <c r="X78" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" t="s">
+        <v>521</v>
+      </c>
+      <c r="L79" t="s">
+        <v>522</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>496</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>515</v>
+      </c>
+      <c r="X79" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>524</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>525</v>
+      </c>
+      <c r="J80" t="s">
+        <v>526</v>
+      </c>
+      <c r="K80" t="s">
+        <v>527</v>
+      </c>
+      <c r="L80" t="s">
+        <v>528</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>529</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" t="s">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s">
+        <v>534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>529</v>
+      </c>
+      <c r="O81" t="s">
+        <v>100</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>535</v>
+      </c>
+      <c r="X81" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>539</v>
+      </c>
+      <c r="J82" t="s">
+        <v>540</v>
+      </c>
+      <c r="K82" t="s">
+        <v>541</v>
+      </c>
+      <c r="L82" t="s">
+        <v>542</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>543</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>544</v>
+      </c>
+      <c r="X82" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83" t="s">
+        <v>549</v>
+      </c>
+      <c r="K83" t="s">
+        <v>550</v>
+      </c>
+      <c r="L83" t="s">
+        <v>551</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>544</v>
+      </c>
+      <c r="X83" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>553</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>554</v>
+      </c>
+      <c r="J84" t="s">
+        <v>555</v>
+      </c>
+      <c r="K84" t="s">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s">
+        <v>557</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>558</v>
+      </c>
+      <c r="X84" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>561</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>562</v>
+      </c>
+      <c r="J85" t="s">
+        <v>563</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>564</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>566</v>
+      </c>
+      <c r="J86" t="s">
+        <v>567</v>
+      </c>
+      <c r="K86" t="s">
+        <v>568</v>
+      </c>
+      <c r="L86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>564</v>
+      </c>
+      <c r="O86" t="s">
+        <v>100</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>572</v>
+      </c>
+      <c r="J87" t="s">
+        <v>573</v>
+      </c>
+      <c r="K87" t="s">
+        <v>574</v>
+      </c>
+      <c r="L87" t="s">
+        <v>575</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>564</v>
+      </c>
+      <c r="O87" t="s">
+        <v>121</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>576</v>
+      </c>
+      <c r="X87" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>579</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>580</v>
+      </c>
+      <c r="J88" t="s">
+        <v>581</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s">
+        <v>74</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>582</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>583</v>
+      </c>
+      <c r="X88" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>585</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>586</v>
+      </c>
+      <c r="J89" t="s">
+        <v>581</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>582</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>587</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>588</v>
+      </c>
+      <c r="J90" t="s">
+        <v>589</v>
+      </c>
+      <c r="K90" t="s">
+        <v>590</v>
+      </c>
+      <c r="L90" t="s">
+        <v>591</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>582</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>582</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>595</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>596</v>
+      </c>
+      <c r="J92" t="s">
+        <v>597</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>598</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>600</v>
+      </c>
+      <c r="J93" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>602</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>603</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>604</v>
+      </c>
+      <c r="J94" t="s">
+        <v>605</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>602</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>606</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>607</v>
+      </c>
+      <c r="J95" t="s">
+        <v>608</v>
+      </c>
+      <c r="K95" t="s">
+        <v>609</v>
+      </c>
+      <c r="L95" t="s">
+        <v>610</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>602</v>
+      </c>
+      <c r="O95" t="s">
+        <v>100</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>611</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>612</v>
+      </c>
+      <c r="J96" t="s">
+        <v>613</v>
+      </c>
+      <c r="K96" t="s">
+        <v>614</v>
+      </c>
+      <c r="L96" t="s">
+        <v>615</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>602</v>
+      </c>
+      <c r="O96" t="s">
+        <v>121</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>617</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>618</v>
+      </c>
+      <c r="J97" t="s">
+        <v>619</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>602</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>620</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>621</v>
+      </c>
+      <c r="J98" t="s">
+        <v>622</v>
+      </c>
+      <c r="K98" t="s">
+        <v>623</v>
+      </c>
+      <c r="L98" t="s">
+        <v>624</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>625</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>626</v>
+      </c>
+      <c r="J99" t="s">
+        <v>627</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s">
+        <v>74</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>628</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>629</v>
+      </c>
+      <c r="X99" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>631</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>632</v>
+      </c>
+      <c r="J100" t="s">
+        <v>633</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>634</v>
+      </c>
+      <c r="O100" t="s">
+        <v>121</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>635</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>636</v>
+      </c>
+      <c r="J101" t="s">
+        <v>637</v>
+      </c>
+      <c r="K101" t="s">
+        <v>638</v>
+      </c>
+      <c r="L101" t="s">
+        <v>639</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>640</v>
+      </c>
+      <c r="O101" t="s">
+        <v>121</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>641</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>642</v>
+      </c>
+      <c r="J102" t="s">
+        <v>643</v>
+      </c>
+      <c r="K102" t="s">
+        <v>644</v>
+      </c>
+      <c r="L102" t="s">
+        <v>645</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>646</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>647</v>
+      </c>
+      <c r="X102" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>650</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>651</v>
+      </c>
+      <c r="J103" t="s">
+        <v>652</v>
+      </c>
+      <c r="K103" t="s">
+        <v>653</v>
+      </c>
+      <c r="L103" t="s">
+        <v>654</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>646</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>647</v>
+      </c>
+      <c r="X103" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>656</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>657</v>
+      </c>
+      <c r="J104" t="s">
+        <v>658</v>
+      </c>
+      <c r="K104" t="s">
+        <v>659</v>
+      </c>
+      <c r="L104" t="s">
+        <v>660</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>646</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>647</v>
+      </c>
+      <c r="X104" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>662</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>663</v>
+      </c>
+      <c r="J105" t="s">
+        <v>664</v>
+      </c>
+      <c r="K105" t="s">
+        <v>665</v>
+      </c>
+      <c r="L105" t="s">
+        <v>666</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>667</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>668</v>
+      </c>
+      <c r="X105" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>671</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>672</v>
+      </c>
+      <c r="J106" t="s">
+        <v>673</v>
+      </c>
+      <c r="K106" t="s">
+        <v>674</v>
+      </c>
+      <c r="L106" t="s">
+        <v>675</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>667</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>676</v>
+      </c>
+      <c r="X106" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>679</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>680</v>
+      </c>
+      <c r="J107" t="s">
+        <v>681</v>
+      </c>
+      <c r="K107" t="s">
+        <v>682</v>
+      </c>
+      <c r="L107" t="s">
+        <v>683</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>684</v>
+      </c>
+      <c r="O107" t="s">
+        <v>81</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>685</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>686</v>
+      </c>
+      <c r="J108" t="s">
+        <v>687</v>
+      </c>
+      <c r="K108" t="s">
+        <v>688</v>
+      </c>
+      <c r="L108" t="s">
+        <v>689</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>684</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>690</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>691</v>
+      </c>
+      <c r="J109" t="s">
+        <v>692</v>
+      </c>
+      <c r="K109" t="s">
+        <v>693</v>
+      </c>
+      <c r="L109" t="s">
+        <v>694</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>695</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>696</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>697</v>
+      </c>
+      <c r="J110" t="s">
+        <v>698</v>
+      </c>
+      <c r="K110" t="s">
+        <v>699</v>
+      </c>
+      <c r="L110" t="s">
+        <v>700</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>701</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>702</v>
+      </c>
+      <c r="X110" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>705</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>706</v>
+      </c>
+      <c r="J111" t="s">
+        <v>707</v>
+      </c>
+      <c r="K111" t="s">
+        <v>708</v>
+      </c>
+      <c r="L111" t="s">
+        <v>709</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>710</v>
+      </c>
+      <c r="O111" t="s">
+        <v>100</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>702</v>
+      </c>
+      <c r="X111" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>712</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>713</v>
+      </c>
+      <c r="J112" t="s">
+        <v>714</v>
+      </c>
+      <c r="K112" t="s">
+        <v>715</v>
+      </c>
+      <c r="L112" t="s">
+        <v>716</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>717</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>702</v>
+      </c>
+      <c r="X112" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>719</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>720</v>
+      </c>
+      <c r="J113" t="s">
+        <v>721</v>
+      </c>
+      <c r="K113" t="s">
+        <v>722</v>
+      </c>
+      <c r="L113" t="s">
+        <v>723</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s">
+        <v>724</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>702</v>
+      </c>
+      <c r="X113" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>726</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>727</v>
+      </c>
+      <c r="J114" t="s">
+        <v>728</v>
+      </c>
+      <c r="K114" t="s">
+        <v>729</v>
+      </c>
+      <c r="L114" t="s">
+        <v>730</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>731</v>
+      </c>
+      <c r="O114" t="s">
+        <v>81</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>733</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>734</v>
+      </c>
+      <c r="J115" t="s">
+        <v>735</v>
+      </c>
+      <c r="K115" t="s">
+        <v>736</v>
+      </c>
+      <c r="L115" t="s">
+        <v>737</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>738</v>
+      </c>
+      <c r="O115" t="s">
+        <v>63</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>702</v>
+      </c>
+      <c r="X115" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>740</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>741</v>
+      </c>
+      <c r="J116" t="s">
+        <v>742</v>
+      </c>
+      <c r="K116" t="s">
+        <v>743</v>
+      </c>
+      <c r="L116" t="s">
+        <v>744</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>745</v>
+      </c>
+      <c r="O116" t="s">
+        <v>63</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>702</v>
+      </c>
+      <c r="X116" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>747</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>748</v>
+      </c>
+      <c r="J117" t="s">
+        <v>749</v>
+      </c>
+      <c r="K117" t="s">
+        <v>750</v>
+      </c>
+      <c r="L117" t="s">
+        <v>751</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>702</v>
+      </c>
+      <c r="X117" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>753</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>754</v>
+      </c>
+      <c r="J118" t="s">
+        <v>755</v>
+      </c>
+      <c r="K118" t="s">
+        <v>756</v>
+      </c>
+      <c r="L118" t="s">
+        <v>757</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>758</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s">
+        <v>702</v>
+      </c>
+      <c r="X118" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>760</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>761</v>
+      </c>
+      <c r="J119" t="s">
+        <v>762</v>
+      </c>
+      <c r="K119" t="s">
+        <v>763</v>
+      </c>
+      <c r="L119" t="s">
+        <v>764</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="s"/>
+      <c r="S119" t="n">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s">
+        <v>702</v>
+      </c>
+      <c r="X119" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>767</v>
+      </c>
+      <c r="J120" t="s">
+        <v>768</v>
+      </c>
+      <c r="K120" t="s">
+        <v>769</v>
+      </c>
+      <c r="L120" t="s">
+        <v>770</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>3</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>702</v>
+      </c>
+      <c r="X120" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>11523</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>772</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>773</v>
+      </c>
+      <c r="J121" t="s">
+        <v>774</v>
+      </c>
+      <c r="K121" t="s">
+        <v>775</v>
+      </c>
+      <c r="L121" t="s">
+        <v>776</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s">
+        <v>702</v>
+      </c>
+      <c r="X121" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
